--- a/Hvor kommer tallene fra/Is_draeber.xlsx
+++ b/Hvor kommer tallene fra/Is_draeber.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christian-vs\Dropbox\PhD\Misc\Tietgen 2020\201019 Workshop 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Dropbox\Teaching\Guest_Lectures_and_misc_talks\Hvor kommer tallene fra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{287548F3-722D-45E5-B028-CEEF13BAC98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A6FDB-A680-46CF-8EC6-4345FFC706E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unsolved" sheetId="2" r:id="rId1"/>
     <sheet name="Solved" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>month</t>
   </si>
@@ -31,11 +44,14 @@
   <si>
     <t>Is solgt</t>
   </si>
+  <si>
+    <t>Maaned</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,51 +533,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Advarselstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bemærk!" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Farve1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Farve2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Farve3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Farve4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Farve5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Farve6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollér celle" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Sammenkædet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Ugyldig" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{54431C05-EBDE-466A-AC55-22F5F414EC59}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,7 +594,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -674,7 +692,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6787,7 +6805,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6825,7 +6843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750420000"/>
@@ -6904,7 +6922,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6942,7 +6960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750423936"/>
@@ -6984,7 +7002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7014,7 +7032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7623,7 +7641,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7918,22 +7936,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7944,7 +7963,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7.2967911316081899</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>5.9931499670122097</v>
@@ -7955,7 +7974,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10.241276937536901</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>16.888170403364299</v>
@@ -7966,7 +7985,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.63604038488119796</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>5.8426736228191301</v>
@@ -7977,7 +7996,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.2982672257348904</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>16.959208636180101</v>
@@ -7988,7 +8007,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.5556947998702499</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4.0313304696301699</v>
@@ -7999,7 +8018,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.5992352925240998</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>3.3693932431831</v>
@@ -8010,7 +8029,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11.0780977215618</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>4.1154735899569097</v>
@@ -8021,7 +8040,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.7452503517270099</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>4.4558134599399901</v>
@@ -8032,7 +8051,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.3946294235065602</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>6.1222863121097699</v>
@@ -8043,7 +8062,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.75974894035608</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>5.5120897382280898</v>
@@ -8054,7 +8073,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11.358523534610899</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3.45312528555319</v>
@@ -8065,7 +8084,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.1169454017654097</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>4.60015857430834</v>
@@ -8076,7 +8095,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5.7822966752573803</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>20.2062267891319</v>
@@ -8087,7 +8106,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.5860246391966903</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>6.3530403486278999</v>
@@ -8098,7 +8117,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.11528688017279</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>5.9585792444280896</v>
@@ -8109,7 +8128,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.5481327828019902</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>7.2683564869916699</v>
@@ -8120,7 +8139,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.99595816992223</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>6.19367099411184</v>
@@ -8131,7 +8150,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8.3924047881737405</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>5.68557326399125</v>
@@ -8142,7 +8161,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.3200701549649203</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>9.2284724125579896</v>
@@ -8153,7 +8172,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.2018862254917604</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>5.7336140362931696</v>
@@ -8164,7 +8183,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3.5460283309221299</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>4.2597239647544196</v>
@@ -8175,7 +8194,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.1828459752723599</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>2.5933101256290199</v>
@@ -8186,7 +8205,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7.0213357592001602</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>20.054762630005001</v>
@@ -8197,7 +8216,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3.3185772607102999</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>2.31688097351504</v>
@@ -8208,7 +8227,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8.5367406802251899</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>6.0484692132504598</v>
@@ -8219,7 +8238,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7.49576011765748</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>7.4364787084143904</v>
@@ -8230,7 +8249,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10.695444473996799</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>6.27956598022962</v>
@@ -8241,7 +8260,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10.0061007002369</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>9.4052567838611001</v>
@@ -8252,7 +8271,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.17394202481955</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>1.9195780550144801</v>
@@ -8263,7 +8282,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.5081326663494101</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>12.5277303020973</v>
@@ -8274,7 +8293,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2.4147571893408899</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>6.5128464928718204</v>
@@ -8285,7 +8304,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.0359803298488299</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <v>3.79441131975722</v>
@@ -8296,7 +8315,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10.868196710944201</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>5.9149860197736999</v>
@@ -8307,7 +8326,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3.9162256512790901</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>3.9374861795095701</v>
@@ -8318,7 +8337,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9.7491770982742292</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>4.41029616815716</v>
@@ -8329,7 +8348,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7.7200749926269099</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>2.7520114903333801</v>
@@ -8340,7 +8359,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2.9675153754651502</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>3.2407191165498399</v>
@@ -8351,7 +8370,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10.9642622284591</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>2.4258718878594498</v>
@@ -8362,7 +8381,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.8963398840278396</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>2.0495973333530899</v>
@@ -8373,7 +8392,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2.7704731961712201</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>2.4417074247111401</v>
@@ -8384,7 +8403,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.17118075862526899</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>3.2232766353072901</v>
@@ -8395,7 +8414,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3.0615803226828602</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>4.7701170056271298</v>
@@ -8406,7 +8425,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>9.1586905689910107</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>12.569383141624501</v>
@@ -8417,7 +8436,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6.3088974896818399</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>6.70284347471231</v>
@@ -8428,7 +8447,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10.9142041141167</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>3.8984024382791498</v>
@@ -8439,7 +8458,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4.90543561801314</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>8.9874377907518106</v>
@@ -8450,7 +8469,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.38501582387834798</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>5.47263685098872</v>
@@ -8461,7 +8480,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.77787050697952498</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>4.03501776756905</v>
@@ -8472,7 +8491,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2.7445595702156398</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>6.3554279837325804</v>
@@ -8483,7 +8502,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2.37697876710445</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>4.6288129564383604</v>
@@ -8494,7 +8513,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.7848918195813901</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>5.35379056590416</v>
@@ -8505,7 +8524,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6.9970994945615503</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>4.1007188413569198</v>
@@ -8516,7 +8535,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.32088484056293998</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>2.8531515803218999</v>
@@ -8527,7 +8546,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9.3115638624876702</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>3.4094690273378299</v>
@@ -8538,7 +8557,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10.5954362014309</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>2.52084907192318</v>
@@ -8549,7 +8568,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1.6736320685595301</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>5.0725556449851199</v>
@@ -8560,7 +8579,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3.5873528374358998</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>2.9950461726300399</v>
@@ -8571,7 +8590,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9.1660359688103199</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>3.37544176622362</v>
@@ -8582,7 +8601,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5.0295555219054204</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>6.5650270163316398</v>
@@ -8593,7 +8612,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.35362193360924699</v>
+        <v>0</v>
       </c>
       <c r="B61">
         <v>2.8339559102127598</v>
@@ -8604,7 +8623,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3.3867771187797202</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>5.6830613517955904</v>
@@ -8615,7 +8634,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9.4361892929300701</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>4.8833105039119102</v>
@@ -8626,7 +8645,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8.8060335740447009</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>9.0440510801529808</v>
@@ -8637,7 +8656,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6.8135832902044102</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>5.61741121895012</v>
@@ -8648,7 +8667,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8.7495907489210403</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>4.1755288454830497</v>
@@ -8659,7 +8678,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.7903765598312</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>5.6573385261659901</v>
@@ -8670,7 +8689,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6.2616449492052197</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>6.6023395913901899</v>
@@ -8681,7 +8700,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.9852254465222401</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>2.9258388978197098</v>
@@ -8692,7 +8711,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>11.3413619231433</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>4.6720825489817601</v>
@@ -8703,7 +8722,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>11.069986347109101</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>5.4307921712329401</v>
@@ -8714,7 +8733,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.92036516312509797</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>4.9427523054351701</v>
@@ -8725,7 +8744,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>8.0000814590603095</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>2.9448395224617099</v>
@@ -8736,7 +8755,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10.229143992997701</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>5.2103041690162701</v>
@@ -8747,7 +8766,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2.99107742775232</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>5.4190487520838797</v>
@@ -8758,7 +8777,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5.9667821237817398</v>
+        <v>6</v>
       </c>
       <c r="B76">
         <v>11.7545654133911</v>
@@ -8769,7 +8788,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3.3828404042869802</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>5.3059176572551401</v>
@@ -8780,7 +8799,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8.84214647579938</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>3.0855988671531298</v>
@@ -8791,7 +8810,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.1826164312660703</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>4.5229717307084796</v>
@@ -8802,7 +8821,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7.0424725748598602</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>6.6465756184629203</v>
@@ -8813,7 +8832,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5.4058463321998698</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>10.458658476759901</v>
@@ -8824,7 +8843,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>11.9956492977217</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>2.8892591481406602</v>
@@ -8835,7 +8854,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4.3612311389297203</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <v>8.2750152806016501</v>
@@ -8846,7 +8865,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>10.1961362538859</v>
+        <v>10</v>
       </c>
       <c r="B84">
         <v>5.8309645829204602</v>
@@ -8857,7 +8876,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8.1102473773062194</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>5.8500353344489797</v>
@@ -8868,7 +8887,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8.1866745734587294</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>3.04960806408846</v>
@@ -8879,7 +8898,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.64980860520154204</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>4.1843036829128097</v>
@@ -8890,7 +8909,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7.1611356390640104</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>5.0338398501009696</v>
@@ -8901,7 +8920,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5.4076292663812602</v>
+        <v>5</v>
       </c>
       <c r="B89">
         <v>12.340650376303399</v>
@@ -8912,7 +8931,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6.5179871292784801</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <v>5.5809918211235603</v>
@@ -8923,7 +8942,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6.6440426157787398</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>11.7810867521143</v>
@@ -8934,7 +8953,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10.305072133429301</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>5.3954862127426102</v>
@@ -8945,7 +8964,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9.10969764087349</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>4.6350065667930602</v>
@@ -8956,7 +8975,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.16559985559433699</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>4.1211865748907099</v>
@@ -8967,7 +8986,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7.0286174146458498</v>
+        <v>7</v>
       </c>
       <c r="B95">
         <v>10.4523664052351</v>
@@ -8978,7 +8997,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3.6662917323410502</v>
+        <v>4</v>
       </c>
       <c r="B96">
         <v>8.7842500429748807</v>
@@ -8989,7 +9008,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5.1989341685548398</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>8.7205093456733795</v>
@@ -9000,7 +9019,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2.87235628813505</v>
+        <v>3</v>
       </c>
       <c r="B98">
         <v>5.06296728507668</v>
@@ -9011,7 +9030,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2.9097890462726399</v>
+        <v>3</v>
       </c>
       <c r="B99">
         <v>2.6625835008943999</v>
@@ -9022,7 +9041,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10.9072554940358</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>8.3347191889037493</v>
@@ -9033,7 +9052,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1.97650919202715</v>
+        <v>2</v>
       </c>
       <c r="B101">
         <v>2.7011885020465698</v>
@@ -9044,7 +9063,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10.552219488658</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>4.3104845296185399</v>
@@ -9055,7 +9074,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>5.5695044053718403</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>14.5282781139351</v>
@@ -9066,7 +9085,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2.5928480951115498</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>5.2757202550264104</v>
@@ -9077,7 +9096,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>7.8375710472464597</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>12.3759501235588</v>
@@ -9088,7 +9107,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3.4389248471707101</v>
+        <v>3</v>
       </c>
       <c r="B106">
         <v>5.28069708243153</v>
@@ -9099,7 +9118,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3.1759211104363199</v>
+        <v>3</v>
       </c>
       <c r="B107">
         <v>3.6515255640090198</v>
@@ -9110,7 +9129,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>11.6634376952425</v>
+        <v>12</v>
       </c>
       <c r="B108">
         <v>4.2483910838379497</v>
@@ -9121,7 +9140,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2.17168015334755</v>
+        <v>2</v>
       </c>
       <c r="B109">
         <v>7.3799078826225699</v>
@@ -9132,7 +9151,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3.4730960922315699</v>
+        <v>3</v>
       </c>
       <c r="B110">
         <v>7.2478714550802703</v>
@@ -9143,7 +9162,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.46164758037775799</v>
+        <v>0</v>
       </c>
       <c r="B111">
         <v>4.2312158468654903</v>
@@ -9154,7 +9173,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4.2549219215288803</v>
+        <v>4</v>
       </c>
       <c r="B112">
         <v>6.6800696803052002</v>
@@ -9165,7 +9184,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5.6792595712468001</v>
+        <v>6</v>
       </c>
       <c r="B113">
         <v>10.3634123995739</v>
@@ -9176,7 +9195,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5.1301027648150903</v>
+        <v>5</v>
       </c>
       <c r="B114">
         <v>11.0789301793024</v>
@@ -9187,7 +9206,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2.47140854224563</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>3.3663877774234998</v>
@@ -9198,7 +9217,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6.4922346984967598</v>
+        <v>6</v>
       </c>
       <c r="B116">
         <v>8.9473337623636606</v>
@@ -9209,7 +9228,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>9.8950171004980803</v>
+        <v>10</v>
       </c>
       <c r="B117">
         <v>8.8831181525699208</v>
@@ -9220,7 +9239,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5.8682532543316501</v>
+        <v>6</v>
       </c>
       <c r="B118">
         <v>11.0320238036887</v>
@@ -9231,7 +9250,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4.1105597326531997</v>
+        <v>4</v>
       </c>
       <c r="B119">
         <v>5.7303570947604499</v>
@@ -9242,7 +9261,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>9.2719203606247902</v>
+        <v>9</v>
       </c>
       <c r="B120">
         <v>5.1503713293384799</v>
@@ -9253,7 +9272,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>7.7322917254641697</v>
+        <v>8</v>
       </c>
       <c r="B121">
         <v>2.8507650865909002</v>
@@ -9264,7 +9283,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>11.051834218204</v>
+        <v>11</v>
       </c>
       <c r="B122">
         <v>2.7331200110522702</v>
@@ -9275,7 +9294,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8.0733067821711302</v>
+        <v>8</v>
       </c>
       <c r="B123">
         <v>14.659367610284599</v>
@@ -9286,7 +9305,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10.6979145035148</v>
+        <v>11</v>
       </c>
       <c r="B124">
         <v>5.4062452707902304</v>
@@ -9297,7 +9316,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>9.2577249230816996</v>
+        <v>9</v>
       </c>
       <c r="B125">
         <v>5.4381209870185998</v>
@@ -9308,7 +9327,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>9.8765570707619208</v>
+        <v>10</v>
       </c>
       <c r="B126">
         <v>3.7280092816110999</v>
@@ -9319,7 +9338,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5.2717815935611698</v>
+        <v>5</v>
       </c>
       <c r="B127">
         <v>9.1950784988709202</v>
@@ -9330,7 +9349,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>9.6872454704716802</v>
+        <v>10</v>
       </c>
       <c r="B128">
         <v>7.56541846400214</v>
@@ -9341,7 +9360,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>5.7427523816004404</v>
+        <v>6</v>
       </c>
       <c r="B129">
         <v>10.3645850661851</v>
@@ -9352,7 +9371,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>9.0870163924992102</v>
+        <v>9</v>
       </c>
       <c r="B130">
         <v>7.3841169173131203</v>
@@ -9363,7 +9382,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>8.1520828446373308</v>
+        <v>8</v>
       </c>
       <c r="B131">
         <v>4.3665300657648602</v>
@@ -9374,7 +9393,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6.64356674998999</v>
+        <v>7</v>
       </c>
       <c r="B132">
         <v>6.8576617645621001</v>
@@ -9385,7 +9404,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>10.8787041306496</v>
+        <v>11</v>
       </c>
       <c r="B133">
         <v>10.2623752206249</v>
@@ -9396,7 +9415,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>3.7937275143340199</v>
+        <v>4</v>
       </c>
       <c r="B134">
         <v>3.0823095309573798</v>
@@ -9407,7 +9426,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7.6891092080622903</v>
+        <v>8</v>
       </c>
       <c r="B135">
         <v>11.2202870783393</v>
@@ -9418,7 +9437,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11.4109923429787</v>
+        <v>11</v>
       </c>
       <c r="B136">
         <v>3.4558489004003898</v>
@@ -9429,7 +9448,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.25790002103894899</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>3.3193570485355499</v>
@@ -9440,7 +9459,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.319336124695837</v>
+        <v>0</v>
       </c>
       <c r="B138">
         <v>2.8634632095163499</v>
@@ -9451,7 +9470,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6.0623896177858096</v>
+        <v>6</v>
       </c>
       <c r="B139">
         <v>11.142119821980399</v>
@@ -9462,7 +9481,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1.6805315818637601</v>
+        <v>2</v>
       </c>
       <c r="B140">
         <v>3.88402201936574</v>
@@ -9473,7 +9492,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>8.5688625052571297</v>
+        <v>9</v>
       </c>
       <c r="B141">
         <v>5.7971505785192896</v>
@@ -9484,7 +9503,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>8.6733849355951005</v>
+        <v>9</v>
       </c>
       <c r="B142">
         <v>9.3265404694216105</v>
@@ -9495,7 +9514,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2.5631883647292901</v>
+        <v>3</v>
       </c>
       <c r="B143">
         <v>5.4515411291155802</v>
@@ -9506,7 +9525,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11.729122571647199</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <v>10.203468800641801</v>
@@ -9517,7 +9536,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11.775837491266399</v>
+        <v>12</v>
       </c>
       <c r="B145">
         <v>3.05556469868859</v>
@@ -9528,7 +9547,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>10.5978534277529</v>
+        <v>11</v>
       </c>
       <c r="B146">
         <v>3.4468306881536299</v>
@@ -9539,7 +9558,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4.21432518213987</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>4.8567306520235896</v>
@@ -9550,7 +9569,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2.3444221140816799</v>
+        <v>2</v>
       </c>
       <c r="B148">
         <v>5.7907017739812598</v>
@@ -9561,7 +9580,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>7.6331509770825496</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <v>3.00090262416844</v>
@@ -9572,7 +9591,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1.43926028162241</v>
+        <v>1</v>
       </c>
       <c r="B150">
         <v>5.5474242652401298</v>
@@ -9583,7 +9602,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>10.1361259398982</v>
+        <v>10</v>
       </c>
       <c r="B151">
         <v>4.0240059291129402</v>
@@ -9594,7 +9613,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>9.9297295538708603</v>
+        <v>10</v>
       </c>
       <c r="B152">
         <v>5.6426162490512102</v>
@@ -9605,7 +9624,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2.1511944830417602</v>
+        <v>2</v>
       </c>
       <c r="B153">
         <v>5.8378438729117796</v>
@@ -9616,7 +9635,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.49032636824995302</v>
+        <v>0</v>
       </c>
       <c r="B154">
         <v>5.9472023939915699</v>
@@ -9627,7 +9646,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>7.2545414306223401</v>
+        <v>7</v>
       </c>
       <c r="B155">
         <v>5.0486883377732701</v>
@@ -9638,7 +9657,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.98332916758954503</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>2.43111193356307</v>
@@ -9649,7 +9668,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.89176368992775701</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>3.6824490672189301</v>
@@ -9660,7 +9679,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>8.2492392808198893</v>
+        <v>8</v>
       </c>
       <c r="B158">
         <v>6.01038335995207</v>
@@ -9671,7 +9690,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>8.9037486081942898</v>
+        <v>9</v>
       </c>
       <c r="B159">
         <v>5.6890401891432596</v>
@@ -9682,7 +9701,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>8.6124977096915192</v>
+        <v>9</v>
       </c>
       <c r="B160">
         <v>6.06304060201703</v>
@@ -9693,7 +9712,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6.9509911984205202</v>
+        <v>7</v>
       </c>
       <c r="B161">
         <v>6.1697376121737699</v>
@@ -9704,7 +9723,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>10.3164049861953</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <v>2.5226864513059599</v>
@@ -9715,7 +9734,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1.31584285665303</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>8.1194865161501699</v>
@@ -9726,7 +9745,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1.7051097806543101</v>
+        <v>2</v>
       </c>
       <c r="B164">
         <v>4.9433765643909</v>
@@ -9737,7 +9756,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11.6086719827726</v>
+        <v>12</v>
       </c>
       <c r="B165">
         <v>3.7200948770324</v>
@@ -9748,7 +9767,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>8.6641986882314104</v>
+        <v>9</v>
       </c>
       <c r="B166">
         <v>8.2757927116331693</v>
@@ -9759,7 +9778,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>5.76084652729332</v>
+        <v>6</v>
       </c>
       <c r="B167">
         <v>20.349099945790101</v>
@@ -9770,7 +9789,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>3.83928697183728</v>
+        <v>4</v>
       </c>
       <c r="B168">
         <v>3.24094127901785</v>
@@ -9781,7 +9800,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>9.5746796792373097</v>
+        <v>10</v>
       </c>
       <c r="B169">
         <v>5.0128209987392101</v>
@@ -9792,7 +9811,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>8.4599328981712496</v>
+        <v>8</v>
       </c>
       <c r="B170">
         <v>20.317075917100201</v>
@@ -9803,7 +9822,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5.2017377447336903</v>
+        <v>5</v>
       </c>
       <c r="B171">
         <v>11.4153721194934</v>
@@ -9814,7 +9833,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8.16270607709885</v>
+        <v>8</v>
       </c>
       <c r="B172">
         <v>3.3491035793525099</v>
@@ -9825,7 +9844,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4.6857920447364396</v>
+        <v>5</v>
       </c>
       <c r="B173">
         <v>7.12142342798104</v>
@@ -9836,7 +9855,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2.1187408519908799</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>4.3627330891904403</v>
@@ -9847,7 +9866,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>7.26178195886314</v>
+        <v>7</v>
       </c>
       <c r="B175">
         <v>11.421427360134899</v>
@@ -9858,7 +9877,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.63059149961918604</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <v>4.5466799442113297</v>
@@ -9869,7 +9888,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6.5530932443216399</v>
+        <v>7</v>
       </c>
       <c r="B177">
         <v>7.3024091085821796</v>
@@ -9880,7 +9899,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>7.4651827281341001</v>
+        <v>7</v>
       </c>
       <c r="B178">
         <v>4.5192426717996499</v>
@@ -9891,7 +9910,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>7.0032636271789697</v>
+        <v>7</v>
       </c>
       <c r="B179">
         <v>4.7543156989962698</v>
@@ -9902,7 +9921,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.25306368246674499</v>
+        <v>0</v>
       </c>
       <c r="B180">
         <v>3.7346477000887899</v>
@@ -9913,7 +9932,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>10.074216613546</v>
+        <v>10</v>
       </c>
       <c r="B181">
         <v>3.85441441209713</v>
@@ -9924,7 +9943,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>5.3210440082475499</v>
+        <v>5</v>
       </c>
       <c r="B182">
         <v>11.187472756820499</v>
@@ -9935,7 +9954,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>7.87529095541686</v>
+        <v>8</v>
       </c>
       <c r="B183">
         <v>11.185606473628599</v>
@@ -9946,7 +9965,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>7.7457037931308204</v>
+        <v>8</v>
       </c>
       <c r="B184">
         <v>6.2271014016576798</v>
@@ -9957,7 +9976,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3.3970549274235999</v>
+        <v>3</v>
       </c>
       <c r="B185">
         <v>6.0963080363742197</v>
@@ -9968,7 +9987,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>10.706025632098299</v>
+        <v>11</v>
       </c>
       <c r="B186">
         <v>11.521590516447199</v>
@@ -9979,7 +9998,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>7.2370850471779704</v>
+        <v>7</v>
       </c>
       <c r="B187">
         <v>5.4919090975973397</v>
@@ -9990,7 +10009,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5.5083073452115103</v>
+        <v>6</v>
       </c>
       <c r="B188">
         <v>11.459056301286701</v>
@@ -10001,7 +10020,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2.1532205035910001</v>
+        <v>2</v>
       </c>
       <c r="B189">
         <v>5.3506606671171504</v>
@@ -10012,7 +10031,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>9.6695468528196198</v>
+        <v>10</v>
       </c>
       <c r="B190">
         <v>2.39533969386867</v>
@@ -10023,7 +10042,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3.2275338051840698</v>
+        <v>3</v>
       </c>
       <c r="B191">
         <v>2.2564936701684699</v>
@@ -10034,7 +10053,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2.5504325386136801</v>
+        <v>3</v>
       </c>
       <c r="B192">
         <v>3.7906696361633898</v>
@@ -10045,7 +10064,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>10.255858705379101</v>
+        <v>10</v>
       </c>
       <c r="B193">
         <v>3.9125302865590701</v>
@@ -10056,7 +10075,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3.7627935893833602</v>
+        <v>4</v>
       </c>
       <c r="B194">
         <v>5.9112603732245503</v>
@@ -10067,7 +10086,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>10.1101392572746</v>
+        <v>10</v>
       </c>
       <c r="B195">
         <v>6.0385539830444301</v>
@@ -10078,7 +10097,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1.8855356331914701</v>
+        <v>2</v>
       </c>
       <c r="B196">
         <v>3.33428291183571</v>
@@ -10089,7 +10108,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11.4636039063334</v>
+        <v>11</v>
       </c>
       <c r="B197">
         <v>3.41848036745054</v>
@@ -10100,7 +10119,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>4.5229034274816504</v>
+        <v>5</v>
       </c>
       <c r="B198">
         <v>7.5944184468362304</v>
@@ -10111,7 +10130,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>10.8360755201429</v>
+        <v>11</v>
       </c>
       <c r="B199">
         <v>7.6165768049679397</v>
@@ -10122,7 +10141,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1.28667670860887</v>
+        <v>1</v>
       </c>
       <c r="B200">
         <v>5.0647881397429497</v>
@@ -10133,7 +10152,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2.2864814093336499</v>
+        <v>2</v>
       </c>
       <c r="B201">
         <v>2.4036069138546301</v>
@@ -10144,7 +10163,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>6.1605390887707498</v>
+        <v>6</v>
       </c>
       <c r="B202">
         <v>5.1858605928983303</v>
@@ -10155,7 +10174,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>6.9055589307099599</v>
+        <v>7</v>
       </c>
       <c r="B203">
         <v>2.5448851116258902</v>
@@ -10166,7 +10185,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3.2693159943446499</v>
+        <v>3</v>
       </c>
       <c r="B204">
         <v>2.3400669791640398</v>
@@ -10177,7 +10196,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11.330991611816</v>
+        <v>11</v>
       </c>
       <c r="B205">
         <v>2.4957033985064898</v>
@@ -10188,7 +10207,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6.2442237222567201</v>
+        <v>6</v>
       </c>
       <c r="B206">
         <v>5.0241019097054798</v>
@@ -10199,7 +10218,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.13025456573814201</v>
+        <v>0</v>
       </c>
       <c r="B207">
         <v>4.8162961060165603</v>
@@ -10210,7 +10229,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.95142528321594</v>
+        <v>1</v>
       </c>
       <c r="B208">
         <v>7.3790332381544204</v>
@@ -10221,7 +10240,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>5.9486619774252203</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>13.155650163606399</v>
@@ -10232,7 +10251,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>8.4233697876334208</v>
+        <v>8</v>
       </c>
       <c r="B210">
         <v>7.4786331186661297</v>
@@ -10243,7 +10262,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>10.890794984065</v>
+        <v>11</v>
       </c>
       <c r="B211">
         <v>12.9054671120708</v>
@@ -10254,7 +10273,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>9.1364302737638408</v>
+        <v>9</v>
       </c>
       <c r="B212">
         <v>10.341911343922</v>
@@ -10265,7 +10284,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>10.9287549331784</v>
+        <v>11</v>
       </c>
       <c r="B213">
         <v>3.4489258394602098</v>
@@ -10276,7 +10295,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11.225113053806099</v>
+        <v>11</v>
       </c>
       <c r="B214">
         <v>4.5795495157291901</v>
@@ -10287,7 +10306,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>5.6054289042949703</v>
+        <v>6</v>
       </c>
       <c r="B215">
         <v>10.203545338111599</v>
@@ -10298,7 +10317,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4.4022015994414696</v>
+        <v>4</v>
       </c>
       <c r="B216">
         <v>3.4022925821277901</v>
@@ -10309,7 +10328,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>5.1081630690023303</v>
+        <v>5</v>
       </c>
       <c r="B217">
         <v>4.5175032075584802</v>
@@ -10320,7 +10339,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2.2780757350847098</v>
+        <v>2</v>
       </c>
       <c r="B218">
         <v>6.6174716757486003</v>
@@ -10331,7 +10350,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>5.0869966540485603</v>
+        <v>5</v>
       </c>
       <c r="B219">
         <v>5.6199930256851296</v>
@@ -10342,7 +10361,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>5.7843078514561101</v>
+        <v>6</v>
       </c>
       <c r="B220">
         <v>14.7453988737619</v>
@@ -10353,7 +10372,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>5.4936534427106398</v>
+        <v>5</v>
       </c>
       <c r="B221">
         <v>14.4882067836466</v>
@@ -10364,7 +10383,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2.27439275756478</v>
+        <v>2</v>
       </c>
       <c r="B222">
         <v>6.7707746729284803</v>
@@ -10375,7 +10394,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3.5631546014919899</v>
+        <v>4</v>
       </c>
       <c r="B223">
         <v>9.8951199492080502</v>
@@ -10386,7 +10405,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>5.0351801756769401</v>
+        <v>5</v>
       </c>
       <c r="B224">
         <v>15.5669122220616</v>
@@ -10397,7 +10416,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>4.2244128026068202</v>
+        <v>4</v>
       </c>
       <c r="B225">
         <v>6.32826142014925</v>
@@ -10408,7 +10427,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>8.84822414629161</v>
+        <v>9</v>
       </c>
       <c r="B226">
         <v>6.8005170477862302</v>
@@ -10419,7 +10438,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>10.6648622592911</v>
+        <v>11</v>
       </c>
       <c r="B227">
         <v>5.5945455280277496</v>
@@ -10430,7 +10449,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>6.5485739372670704</v>
+        <v>7</v>
       </c>
       <c r="B228">
         <v>14.8158585450798</v>
@@ -10441,7 +10460,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1.62502680625767</v>
+        <v>2</v>
       </c>
       <c r="B229">
         <v>2.8351861919715899</v>
@@ -10452,7 +10471,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3.9274668060243099</v>
+        <v>4</v>
       </c>
       <c r="B230">
         <v>3.9025114222976001</v>
@@ -10463,7 +10482,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3.8458474148064901</v>
+        <v>4</v>
       </c>
       <c r="B231">
         <v>10.4884144441925</v>
@@ -10474,7 +10493,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>9.9856162453070301</v>
+        <v>10</v>
       </c>
       <c r="B232">
         <v>14.5087926972634</v>
@@ -10485,7 +10504,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>7.3060115994885599</v>
+        <v>7</v>
       </c>
       <c r="B233">
         <v>6.8371078756648602</v>
@@ -10496,7 +10515,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>7.4126086262986099</v>
+        <v>7</v>
       </c>
       <c r="B234">
         <v>10.068147142508799</v>
@@ -10507,7 +10526,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2.9607623750343901</v>
+        <v>3</v>
       </c>
       <c r="B235">
         <v>1.7772482731978101</v>
@@ -10518,7 +10537,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>5.4470125911757297</v>
+        <v>5</v>
       </c>
       <c r="B236">
         <v>11.9245008108501</v>
@@ -10529,7 +10548,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1.3110802564770001</v>
+        <v>1</v>
       </c>
       <c r="B237">
         <v>6.0239220238320703</v>
@@ -10540,7 +10559,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.55939128343015898</v>
+        <v>1</v>
       </c>
       <c r="B238">
         <v>7.28288742225324</v>
@@ -10551,7 +10570,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>7.3739543175324798</v>
+        <v>7</v>
       </c>
       <c r="B239">
         <v>15.622110261468899</v>
@@ -10562,7 +10581,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>3.7437962461262901</v>
+        <v>4</v>
       </c>
       <c r="B240">
         <v>4.6405207780214504</v>
@@ -10573,7 +10592,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>7.3313422361388803</v>
+        <v>7</v>
       </c>
       <c r="B241">
         <v>6.3462483756273302</v>
@@ -10584,7 +10603,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3.3472311487421398</v>
+        <v>3</v>
       </c>
       <c r="B242">
         <v>4.0108243181370096</v>
@@ -10595,7 +10614,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2.0131482286378701</v>
+        <v>2</v>
       </c>
       <c r="B243">
         <v>4.0639758069781697</v>
@@ -10606,7 +10625,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4.82482513133436</v>
+        <v>5</v>
       </c>
       <c r="B244">
         <v>8.3619079673811996</v>
@@ -10617,7 +10636,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1.0029775416478499</v>
+        <v>1</v>
       </c>
       <c r="B245">
         <v>4.8775680708977696</v>
@@ -10628,7 +10647,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>11.6595220500603</v>
+        <v>12</v>
       </c>
       <c r="B246">
         <v>2.9015488547820998</v>
@@ -10639,7 +10658,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2.9362112469971202</v>
+        <v>3</v>
       </c>
       <c r="B247">
         <v>3.8709287519124</v>
@@ -10650,7 +10669,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1.5172255570069</v>
+        <v>2</v>
       </c>
       <c r="B248">
         <v>3.5966801398833899</v>
@@ -10661,7 +10680,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.89603745751082897</v>
+        <v>1</v>
       </c>
       <c r="B249">
         <v>5.4467953832979399</v>
@@ -10672,7 +10691,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3.61311986111104</v>
+        <v>4</v>
       </c>
       <c r="B250">
         <v>3.4253072774698898</v>
@@ -10683,7 +10702,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2.8185049518942802</v>
+        <v>3</v>
       </c>
       <c r="B251">
         <v>4.408732883871</v>
@@ -10694,7 +10713,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4.4024290759116402</v>
+        <v>4</v>
       </c>
       <c r="B252">
         <v>7.85382013286796</v>
@@ -10705,7 +10724,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2.7420928990468401</v>
+        <v>3</v>
       </c>
       <c r="B253">
         <v>3.5806177368976102</v>
@@ -10716,7 +10735,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>11.092125898227099</v>
+        <v>11</v>
       </c>
       <c r="B254">
         <v>3.9970706575385302</v>
@@ -10727,7 +10746,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3.47883262205869</v>
+        <v>3</v>
       </c>
       <c r="B255">
         <v>4.1483114704812598</v>
@@ -10738,7 +10757,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>6.2082314696162904</v>
+        <v>6</v>
       </c>
       <c r="B256">
         <v>10.7310763799568</v>
@@ -10749,7 +10768,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>3.4450471820309798</v>
+        <v>3</v>
       </c>
       <c r="B257">
         <v>5.1521526325152598</v>
@@ -10760,7 +10779,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.95465259533375502</v>
+        <v>1</v>
       </c>
       <c r="B258">
         <v>5.9525988410831996</v>
@@ -10771,7 +10790,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>11.9163389950991</v>
+        <v>12</v>
       </c>
       <c r="B259">
         <v>1.8414977004323501</v>
@@ -10782,7 +10801,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>2.44977025128901</v>
+        <v>2</v>
       </c>
       <c r="B260">
         <v>5.94660321355531</v>
@@ -10793,7 +10812,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>8.3740509012713993</v>
+        <v>8</v>
       </c>
       <c r="B261">
         <v>11.8552389832812</v>
@@ -10804,7 +10823,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>3.2071873387321799</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>5.1607207523392598</v>
@@ -10815,7 +10834,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>3.8607033407315599</v>
+        <v>4</v>
       </c>
       <c r="B263">
         <v>6.5785385125030702</v>
@@ -10826,7 +10845,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>10.158077957108601</v>
+        <v>10</v>
       </c>
       <c r="B264">
         <v>6.26687920343063</v>
@@ -10837,7 +10856,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>6.6472336286678901</v>
+        <v>7</v>
       </c>
       <c r="B265">
         <v>7.5029655647468196</v>
@@ -10848,7 +10867,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>2.6878068018704702</v>
+        <v>3</v>
       </c>
       <c r="B266">
         <v>3.2047841286326002</v>
@@ -10859,7 +10878,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>7.9873229423537904</v>
+        <v>8</v>
       </c>
       <c r="B267">
         <v>4.8042903723197901</v>
@@ -10870,7 +10889,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.14763761591166299</v>
+        <v>0</v>
       </c>
       <c r="B268">
         <v>5.1741409281888098</v>
@@ -10881,7 +10900,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>3.35564947687089</v>
+        <v>3</v>
       </c>
       <c r="B269">
         <v>3.5179896353285298</v>
@@ -10892,7 +10911,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>11.291214586235601</v>
+        <v>11</v>
       </c>
       <c r="B270">
         <v>4.15617393135767</v>
@@ -10903,7 +10922,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>7.3856827178969997</v>
+        <v>7</v>
       </c>
       <c r="B271">
         <v>4.1739235053873198</v>
@@ -10914,7 +10933,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.137496242299676</v>
+        <v>0</v>
       </c>
       <c r="B272">
         <v>2.9955254629218699</v>
@@ -10925,7 +10944,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>4.4590433696284899</v>
+        <v>4</v>
       </c>
       <c r="B273">
         <v>5.3889344431994299</v>
@@ -10936,7 +10955,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>8.4529550475999695</v>
+        <v>8</v>
       </c>
       <c r="B274">
         <v>8.3453648448892892</v>
@@ -10947,7 +10966,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>10.169772676192199</v>
+        <v>10</v>
       </c>
       <c r="B275">
         <v>5.0824254528369304</v>
@@ -10958,7 +10977,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>10.806768114678601</v>
+        <v>11</v>
       </c>
       <c r="B276">
         <v>3.9631575965732799</v>
@@ -10969,7 +10988,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.71803659293800604</v>
+        <v>1</v>
       </c>
       <c r="B277">
         <v>1.3977748761909301</v>
@@ -10980,7 +10999,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>11.152027208358</v>
+        <v>11</v>
       </c>
       <c r="B278">
         <v>3.7130085160743902</v>
@@ -10991,7 +11010,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>9.4566234117373806</v>
+        <v>9</v>
       </c>
       <c r="B279">
         <v>5.5199842096256697</v>
@@ -11002,7 +11021,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>7.4098725076764804</v>
+        <v>7</v>
       </c>
       <c r="B280">
         <v>3.5556889938148801</v>
@@ -11013,7 +11032,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1.3781907213851801</v>
+        <v>1</v>
       </c>
       <c r="B281">
         <v>3.28377735130048</v>
@@ -11024,7 +11043,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>9.4133896529674495</v>
+        <v>9</v>
       </c>
       <c r="B282">
         <v>4.4824246769328404</v>
@@ -11035,7 +11054,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>11.9599788067862</v>
+        <v>12</v>
       </c>
       <c r="B283">
         <v>7.8212814568478404</v>
@@ -11046,7 +11065,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>9.5350366495549697</v>
+        <v>10</v>
       </c>
       <c r="B284">
         <v>3.6930474544403298</v>
@@ -11057,7 +11076,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>5.4352528145536798</v>
+        <v>5</v>
       </c>
       <c r="B285">
         <v>12.392278465127699</v>
@@ -11068,7 +11087,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>7.0755354277789602</v>
+        <v>7</v>
       </c>
       <c r="B286">
         <v>4.3069313195999204</v>
@@ -11079,7 +11098,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2.8508487297222</v>
+        <v>3</v>
       </c>
       <c r="B287">
         <v>1.5619878179872899</v>
@@ -11090,7 +11109,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>11.5916519695893</v>
+        <v>12</v>
       </c>
       <c r="B288">
         <v>5.2067686493652703</v>
@@ -11101,7 +11120,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>9.0317581454291904</v>
+        <v>9</v>
       </c>
       <c r="B289">
         <v>6.0475020952308904</v>
@@ -11112,7 +11131,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4.5526914875954398</v>
+        <v>5</v>
       </c>
       <c r="B290">
         <v>4.26549364299186</v>
@@ -11123,7 +11142,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>7.04882339481264</v>
+        <v>7</v>
       </c>
       <c r="B291">
         <v>6.0663990979815399</v>
@@ -11134,7 +11153,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>3.2032556282356399</v>
+        <v>3</v>
       </c>
       <c r="B292">
         <v>5.0248954822503302</v>
@@ -11145,7 +11164,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.30190082453191303</v>
+        <v>0</v>
       </c>
       <c r="B293">
         <v>1.6269200124855501</v>
@@ -11156,7 +11175,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>8.1648255111649597</v>
+        <v>8</v>
       </c>
       <c r="B294">
         <v>5.3817067230045899</v>
@@ -11167,7 +11186,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>8.4758495371788705</v>
+        <v>8</v>
       </c>
       <c r="B295">
         <v>6.6974311094358896</v>
@@ -11178,7 +11197,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>8.6693214392289502</v>
+        <v>9</v>
       </c>
       <c r="B296">
         <v>3.3971263923320301</v>
@@ -11189,7 +11208,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>6.0632542194798598</v>
+        <v>6</v>
       </c>
       <c r="B297">
         <v>5.3521918939431004</v>
@@ -11200,7 +11219,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>3.2633799472823699</v>
+        <v>3</v>
       </c>
       <c r="B298">
         <v>4.8047485838088102</v>
@@ -11211,7 +11230,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>6.9690912645310199</v>
+        <v>7</v>
       </c>
       <c r="B299">
         <v>3.69616197917476</v>
@@ -11222,7 +11241,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>6.1942768665030599</v>
+        <v>6</v>
       </c>
       <c r="B300">
         <v>3.1541975686313002</v>
@@ -11233,7 +11252,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0.53281566873192798</v>
+        <v>1</v>
       </c>
       <c r="B301">
         <v>2.91831722726443</v>
@@ -11244,7 +11263,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>11.5588283669204</v>
+        <v>12</v>
       </c>
       <c r="B302">
         <v>5.3685389199051796</v>
@@ -11255,7 +11274,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>11.822069747373501</v>
+        <v>12</v>
       </c>
       <c r="B303">
         <v>1.42799306700847</v>
@@ -11266,7 +11285,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1.63428341411054</v>
+        <v>2</v>
       </c>
       <c r="B304">
         <v>5.1275812050640299</v>
@@ -11277,7 +11296,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>3.6075919903814802</v>
+        <v>4</v>
       </c>
       <c r="B305">
         <v>4.4267014360473098</v>
@@ -11288,7 +11307,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1.2416678555309799</v>
+        <v>1</v>
       </c>
       <c r="B306">
         <v>5.9033109311611502</v>
@@ -11299,7 +11318,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1.23442810960114</v>
+        <v>1</v>
       </c>
       <c r="B307">
         <v>3.5800912347091201</v>
@@ -11310,7 +11329,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5.3512136545032298</v>
+        <v>5</v>
       </c>
       <c r="B308">
         <v>9.3276297783872195</v>
@@ -11321,7 +11340,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>6.9199681291356701</v>
+        <v>7</v>
       </c>
       <c r="B309">
         <v>3.4475856395723299</v>
@@ -11332,7 +11351,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>2.3098335396498402</v>
+        <v>2</v>
       </c>
       <c r="B310">
         <v>2.9323354462265101</v>
@@ -11343,7 +11362,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1.8708224929869199</v>
+        <v>2</v>
       </c>
       <c r="B311">
         <v>5.3463796865452604</v>
@@ -11354,7 +11373,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>2.5529061164706901</v>
+        <v>3</v>
       </c>
       <c r="B312">
         <v>4.2054657144536502</v>
@@ -11365,7 +11384,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5.2241409011185196</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>11.285409500132999</v>
@@ -11376,7 +11395,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5.9632234945893297</v>
+        <v>6</v>
       </c>
       <c r="B314">
         <v>11.5173159926136</v>
@@ -11387,7 +11406,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>9.7635820750147104</v>
+        <v>10</v>
       </c>
       <c r="B315">
         <v>12.3441888251426</v>
@@ -11398,7 +11417,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5.4484331784769902</v>
+        <v>5</v>
       </c>
       <c r="B316">
         <v>9.6677722335967395</v>
@@ -11409,7 +11428,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>0.252096371725202</v>
+        <v>0</v>
       </c>
       <c r="B317">
         <v>4.0492969610996399</v>
@@ -11420,7 +11439,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1.7964578457176701</v>
+        <v>2</v>
       </c>
       <c r="B318">
         <v>5.3849687152847903</v>
@@ -11431,7 +11450,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>11.392609954811601</v>
+        <v>11</v>
       </c>
       <c r="B319">
         <v>1.6236410731948101</v>
@@ -11442,7 +11461,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>10.076173139736101</v>
+        <v>10</v>
       </c>
       <c r="B320">
         <v>4.4361785287627704</v>
@@ -11453,7 +11472,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>4.9968828829005396</v>
+        <v>5</v>
       </c>
       <c r="B321">
         <v>10.6173861061824</v>
@@ -11464,7 +11483,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1.7248996775597301</v>
+        <v>2</v>
       </c>
       <c r="B322">
         <v>4.51495270026152</v>
@@ -11475,7 +11494,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>4.9895114125683904</v>
+        <v>5</v>
       </c>
       <c r="B323">
         <v>10.6115702929067</v>
@@ -11486,7 +11505,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>9.5934550249949098</v>
+        <v>10</v>
       </c>
       <c r="B324">
         <v>5.1196991119312498</v>
@@ -11497,7 +11516,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>5.9834675090387499</v>
+        <v>6</v>
       </c>
       <c r="B325">
         <v>13.506676123091699</v>
@@ -11508,7 +11527,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5.6956407492980397</v>
+        <v>6</v>
       </c>
       <c r="B326">
         <v>10.7293408572923</v>
@@ -11519,7 +11538,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>11.8384403027594</v>
+        <v>12</v>
       </c>
       <c r="B327">
         <v>1.6936894969712499</v>
@@ -11530,7 +11549,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>0.91551036760211002</v>
+        <v>1</v>
       </c>
       <c r="B328">
         <v>4.5332382601339303</v>
@@ -11541,7 +11560,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>2.8825608892366299</v>
+        <v>3</v>
       </c>
       <c r="B329">
         <v>4.2665086883149002</v>
@@ -11552,7 +11571,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>11.3738494785503</v>
+        <v>11</v>
       </c>
       <c r="B330">
         <v>4.9019706166864703</v>
@@ -11563,7 +11582,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>10.395165997557299</v>
+        <v>10</v>
       </c>
       <c r="B331">
         <v>3.07048286810139</v>
@@ -11574,7 +11593,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>4.9660241575911597</v>
+        <v>5</v>
       </c>
       <c r="B332">
         <v>9.7802035300246395</v>
@@ -11585,7 +11604,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1.77460630517453</v>
+        <v>2</v>
       </c>
       <c r="B333">
         <v>5.1822429697788701</v>
@@ -11596,7 +11615,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>3.32042676396668</v>
+        <v>3</v>
       </c>
       <c r="B334">
         <v>4.5386599413495103</v>
@@ -11607,7 +11626,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>0.17342461645603199</v>
+        <v>0</v>
       </c>
       <c r="B335">
         <v>3.3559374377468898</v>
@@ -11618,7 +11637,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>9.6418983489274996</v>
+        <v>10</v>
       </c>
       <c r="B336">
         <v>5.2850070807475804</v>
@@ -11629,7 +11648,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>11.142555017955599</v>
+        <v>11</v>
       </c>
       <c r="B337">
         <v>4.4996464516275996</v>
@@ -11640,7 +11659,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>11.0105957072228</v>
+        <v>11</v>
       </c>
       <c r="B338">
         <v>5.9546677205643403</v>
@@ -11651,7 +11670,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5.9579588854685399</v>
+        <v>6</v>
       </c>
       <c r="B339">
         <v>10.2472447182039</v>
@@ -11662,7 +11681,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>8.0484735192731005</v>
+        <v>8</v>
       </c>
       <c r="B340">
         <v>3.6894067515851598</v>
@@ -11673,7 +11692,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>2.95796066522598</v>
+        <v>3</v>
       </c>
       <c r="B341">
         <v>8.9331381159761793</v>
@@ -11684,7 +11703,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>2.1134200617671</v>
+        <v>2</v>
       </c>
       <c r="B342">
         <v>6.7055659017740998</v>
@@ -11695,7 +11714,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5.8172901347279504</v>
+        <v>6</v>
       </c>
       <c r="B343">
         <v>15.293611110433501</v>
@@ -11706,7 +11725,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>8.9027116801589692</v>
+        <v>9</v>
       </c>
       <c r="B344">
         <v>9.3999915252446105</v>
@@ -11717,7 +11736,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>4.4858314292505401</v>
+        <v>4</v>
       </c>
       <c r="B345">
         <v>6.2846779063491001</v>
@@ -11728,7 +11747,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>9.9578814553096908</v>
+        <v>10</v>
       </c>
       <c r="B346">
         <v>3.0534832756413302</v>
@@ -11739,7 +11758,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1.88657392468303</v>
+        <v>2</v>
       </c>
       <c r="B347">
         <v>4.1727504100689101</v>
@@ -11750,7 +11769,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>7.8485914925113303</v>
+        <v>8</v>
       </c>
       <c r="B348">
         <v>5.3977237261333704</v>
@@ -11761,7 +11780,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1.1340402932837601</v>
+        <v>1</v>
       </c>
       <c r="B349">
         <v>2.86276394315232</v>
@@ -11772,7 +11791,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>10.000277604907801</v>
+        <v>10</v>
       </c>
       <c r="B350">
         <v>4.3128093819588296</v>
@@ -11783,7 +11802,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>3.8721281513571699</v>
+        <v>4</v>
       </c>
       <c r="B351">
         <v>6.64731370562947</v>
@@ -11794,7 +11813,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>3.77747405134141</v>
+        <v>4</v>
       </c>
       <c r="B352">
         <v>7.4997195529340503</v>
@@ -11805,7 +11824,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>3.85526943672448</v>
+        <v>4</v>
       </c>
       <c r="B353">
         <v>3.0459924061830801</v>
@@ -11816,7 +11835,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>9.5135059710591996</v>
+        <v>10</v>
       </c>
       <c r="B354">
         <v>11.3502034131877</v>
@@ -11827,7 +11846,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>9.6071849567815697</v>
+        <v>10</v>
       </c>
       <c r="B355">
         <v>11.514606346913199</v>
@@ -11838,7 +11857,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>9.7467973306775093</v>
+        <v>10</v>
       </c>
       <c r="B356">
         <v>9.6991385086595301</v>
@@ -11849,7 +11868,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>7.3773696217685902</v>
+        <v>7</v>
       </c>
       <c r="B357">
         <v>4.2028775891511199</v>
@@ -11860,7 +11879,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>10.6759842596948</v>
+        <v>11</v>
       </c>
       <c r="B358">
         <v>5.4394694600827904</v>
@@ -11871,7 +11890,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>2.3236145507544301</v>
+        <v>2</v>
       </c>
       <c r="B359">
         <v>6.47345111363268</v>
@@ -11882,7 +11901,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>4.5032830769196197</v>
+        <v>5</v>
       </c>
       <c r="B360">
         <v>7.3483572998703304</v>
@@ -11893,7 +11912,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>0.43592902924865501</v>
+        <v>0</v>
       </c>
       <c r="B361">
         <v>4.9472290058426402</v>
@@ -11904,7 +11923,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>2.6695041144266698</v>
+        <v>3</v>
       </c>
       <c r="B362">
         <v>3.53222900305239</v>
@@ -11915,7 +11934,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>9.4103865567594802</v>
+        <v>9</v>
       </c>
       <c r="B363">
         <v>10.698091224683701</v>
@@ -11926,7 +11945,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6.1304552927613303</v>
+        <v>6</v>
       </c>
       <c r="B364">
         <v>4.7401396847237596</v>
@@ -11937,7 +11956,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>9.8152803517878109</v>
+        <v>10</v>
       </c>
       <c r="B365">
         <v>10.691715705585001</v>
@@ -11948,7 +11967,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>8.7994952816516196</v>
+        <v>9</v>
       </c>
       <c r="B366">
         <v>13.5620978938642</v>
@@ -11959,7 +11978,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>10.9002487566322</v>
+        <v>11</v>
       </c>
       <c r="B367">
         <v>10.6954266586405</v>
@@ -11970,7 +11989,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>9.2205836093053204</v>
+        <v>9</v>
       </c>
       <c r="B368">
         <v>4.6932843988109001</v>
@@ -11981,7 +12000,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>2.1991203278303102</v>
+        <v>2</v>
       </c>
       <c r="B369">
         <v>4.2302206474599098</v>
@@ -11992,7 +12011,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>10.3671548534185</v>
+        <v>10</v>
       </c>
       <c r="B370">
         <v>4.3586635611667903</v>
@@ -12003,7 +12022,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>4.3343050293624401</v>
+        <v>4</v>
       </c>
       <c r="B371">
         <v>7.1189300443133599</v>
@@ -12014,7 +12033,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>10.163744148798299</v>
+        <v>10</v>
       </c>
       <c r="B372">
         <v>9.9182665834291797</v>
@@ -12025,7 +12044,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>3.5927541665732901</v>
+        <v>4</v>
       </c>
       <c r="B373">
         <v>6.2089289957899201</v>
@@ -12036,7 +12055,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6.3045229604467696</v>
+        <v>6</v>
       </c>
       <c r="B374">
         <v>5.305037019767</v>
@@ -12047,7 +12066,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>5.70001884642988</v>
+        <v>6</v>
       </c>
       <c r="B375">
         <v>15.3844029516149</v>
@@ -12058,7 +12077,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>0.89220007415860902</v>
+        <v>1</v>
       </c>
       <c r="B376">
         <v>0.94957408034750701</v>
@@ -12069,7 +12088,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>5.7229956462979299</v>
+        <v>6</v>
       </c>
       <c r="B377">
         <v>24.108469558648</v>
@@ -12080,7 +12099,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>5.4057155158370698</v>
+        <v>5</v>
       </c>
       <c r="B378">
         <v>18.715863624649501</v>
@@ -12091,7 +12110,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>5.3052673190832103</v>
+        <v>5</v>
       </c>
       <c r="B379">
         <v>12.8349121019035</v>
@@ -12102,7 +12121,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>9.4151419512927497</v>
+        <v>9</v>
       </c>
       <c r="B380">
         <v>4.6560362331851497</v>
@@ -12113,7 +12132,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>2.2881419369950899</v>
+        <v>2</v>
       </c>
       <c r="B381">
         <v>4.4739586115324403</v>
@@ -12124,7 +12143,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6.3252859655767697</v>
+        <v>6</v>
       </c>
       <c r="B382">
         <v>3.5127451858584999</v>
@@ -12135,7 +12154,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>3.2164463689550802</v>
+        <v>3</v>
       </c>
       <c r="B383">
         <v>3.8990177305737799</v>
@@ -12146,7 +12165,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>4.2163732303306496</v>
+        <v>4</v>
       </c>
       <c r="B384">
         <v>7.7360280672097304</v>
@@ -12157,7 +12176,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>4.32352146226913</v>
+        <v>4</v>
       </c>
       <c r="B385">
         <v>5.2047930240084002</v>
@@ -12168,7 +12187,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>0.68523000273853496</v>
+        <v>1</v>
       </c>
       <c r="B386">
         <v>4.2475259714040803</v>
@@ -12179,7 +12198,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>8.6780007965862804</v>
+        <v>9</v>
       </c>
       <c r="B387">
         <v>10.352618554585201</v>
@@ -12190,7 +12209,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>5.5680014323443201</v>
+        <v>6</v>
       </c>
       <c r="B388">
         <v>17.163146431934099</v>
@@ -12201,7 +12220,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1.82817039359361</v>
+        <v>2</v>
       </c>
       <c r="B389">
         <v>6.42509393290727</v>
@@ -12212,7 +12231,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>7.7352811507880697</v>
+        <v>8</v>
       </c>
       <c r="B390">
         <v>8.9963859969656603</v>
@@ -12223,7 +12242,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>8.5608990350738203</v>
+        <v>9</v>
       </c>
       <c r="B391">
         <v>6.8747188625537703</v>
@@ -12234,7 +12253,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.90632224828004804</v>
+        <v>1</v>
       </c>
       <c r="B392">
         <v>3.3126833536499598</v>
@@ -12245,7 +12264,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6.3889926625415701</v>
+        <v>6</v>
       </c>
       <c r="B393">
         <v>15.305655792790599</v>
@@ -12256,7 +12275,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>8.8932838160544598</v>
+        <v>9</v>
       </c>
       <c r="B394">
         <v>6.3214041766345597</v>
@@ -12267,7 +12286,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>4.4377015214413396</v>
+        <v>4</v>
       </c>
       <c r="B395">
         <v>10.7263628174804</v>
@@ -12278,7 +12297,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6.7469336902722699</v>
+        <v>7</v>
       </c>
       <c r="B396">
         <v>4.3469794929555103</v>
@@ -12289,7 +12308,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>8.0144229819998092</v>
+        <v>8</v>
       </c>
       <c r="B397">
         <v>2.9912791240888899</v>
@@ -12300,7 +12319,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1.51253782678396</v>
+        <v>2</v>
       </c>
       <c r="B398">
         <v>4.0359451136399196</v>
@@ -12311,7 +12330,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6.0585459787398603</v>
+        <v>6</v>
       </c>
       <c r="B399">
         <v>6.7125529258861398</v>
@@ -12322,7 +12341,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6.9199981838464701</v>
+        <v>7</v>
       </c>
       <c r="B400">
         <v>7.6439937427351001</v>
@@ -12333,7 +12352,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>11.800453757867199</v>
+        <v>12</v>
       </c>
       <c r="B401">
         <v>3.0616354148751301</v>
@@ -12344,7 +12363,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>10.5204409249127</v>
+        <v>11</v>
       </c>
       <c r="B402">
         <v>6.6494876725569103</v>
@@ -12355,7 +12374,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>10.6311385044828</v>
+        <v>11</v>
       </c>
       <c r="B403">
         <v>7.5211366438954501</v>
@@ -12366,7 +12385,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>8.3839437514543498</v>
+        <v>8</v>
       </c>
       <c r="B404">
         <v>5.0874319587755501</v>
@@ -12377,7 +12396,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>7.49086337909102</v>
+        <v>7</v>
       </c>
       <c r="B405">
         <v>3.6971598815909799</v>
@@ -12388,7 +12407,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>11.0901594031602</v>
+        <v>11</v>
       </c>
       <c r="B406">
         <v>4.3801063325234599</v>
@@ -12399,7 +12418,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>6.0680641354993003</v>
+        <v>6</v>
       </c>
       <c r="B407">
         <v>7.3461761639660201</v>
@@ -12410,7 +12429,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>7.34890503901988</v>
+        <v>7</v>
       </c>
       <c r="B408">
         <v>6.34203204377103</v>
@@ -12421,7 +12440,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>7.31712096836418</v>
+        <v>7</v>
       </c>
       <c r="B409">
         <v>15.416274293591799</v>
@@ -12432,7 +12451,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>8.3883339548483509</v>
+        <v>8</v>
       </c>
       <c r="B410">
         <v>1.01351744858391</v>
@@ -12443,7 +12462,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>0.47331010177731497</v>
+        <v>0</v>
       </c>
       <c r="B411">
         <v>3.3641645447843298</v>
@@ -12454,7 +12473,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>7.2432821067050099</v>
+        <v>7</v>
       </c>
       <c r="B412">
         <v>24.047874114100399</v>
@@ -12465,7 +12484,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>8.3422501534223592</v>
+        <v>8</v>
       </c>
       <c r="B413">
         <v>18.779305369664598</v>
@@ -12476,7 +12495,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>6.4592595761641904</v>
+        <v>6</v>
       </c>
       <c r="B414">
         <v>12.976355316990601</v>
@@ -12487,7 +12506,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>8.49733876157552</v>
+        <v>8</v>
       </c>
       <c r="B415">
         <v>4.5960186668915899</v>
@@ -12498,7 +12517,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1.4931191783398401</v>
+        <v>1</v>
       </c>
       <c r="B416">
         <v>4.5257781241358197</v>
@@ -12509,7 +12528,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>6.0658065844327202</v>
+        <v>6</v>
       </c>
       <c r="B417">
         <v>4.0447105421152401</v>
@@ -12520,7 +12539,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>2.3271560808643699</v>
+        <v>2</v>
       </c>
       <c r="B418">
         <v>3.34922812194519</v>
@@ -12531,7 +12550,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>5.3158700214698902</v>
+        <v>5</v>
       </c>
       <c r="B419">
         <v>11.8317670938393</v>
@@ -12542,7 +12561,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>4.3489355966448802</v>
+        <v>4</v>
       </c>
       <c r="B420">
         <v>7.96324049264385</v>
@@ -12553,7 +12572,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3.1240954315289899</v>
+        <v>3</v>
       </c>
       <c r="B421">
         <v>6.2128044341380804</v>
@@ -12564,7 +12583,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>8.3782034358009696</v>
+        <v>8</v>
       </c>
       <c r="B422">
         <v>7.9294678155761797</v>
@@ -12575,7 +12594,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>2.9543314436450601</v>
+        <v>3</v>
       </c>
       <c r="B423">
         <v>5.5051473589689603</v>
@@ -12586,7 +12605,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>5.8121615946292904</v>
+        <v>6</v>
       </c>
       <c r="B424">
         <v>12.338435792676</v>
@@ -12597,7 +12616,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0.83405126631259896</v>
+        <v>1</v>
       </c>
       <c r="B425">
         <v>9.2362459473841501</v>
@@ -12608,7 +12627,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>2.7303476454690099</v>
+        <v>3</v>
       </c>
       <c r="B426">
         <v>4.6060632787220799</v>
@@ -12619,7 +12638,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>10.993008049204899</v>
+        <v>11</v>
       </c>
       <c r="B427">
         <v>5.23500893311361</v>
@@ -12630,7 +12649,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>8.3817458767443895</v>
+        <v>8</v>
       </c>
       <c r="B428">
         <v>4.3572096970330003</v>
@@ -12641,7 +12660,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>7.8673982592299598</v>
+        <v>8</v>
       </c>
       <c r="B429">
         <v>17.234110396396201</v>
@@ -12652,7 +12671,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>8.31159304082394</v>
+        <v>8</v>
       </c>
       <c r="B430">
         <v>6.5586456283877803</v>
@@ -12663,7 +12682,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>3.8805228536948602</v>
+        <v>4</v>
       </c>
       <c r="B431">
         <v>4.8212389577463703</v>
@@ -12674,7 +12693,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>10.3885109759867</v>
+        <v>10</v>
       </c>
       <c r="B432">
         <v>3.4320041174033999</v>
@@ -12685,7 +12704,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>7.4915855973958996</v>
+        <v>7</v>
       </c>
       <c r="B433">
         <v>10.773950531153</v>
@@ -12696,7 +12715,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>11.5062747029588</v>
+        <v>12</v>
       </c>
       <c r="B434">
         <v>4.1399949866160703</v>
@@ -12707,7 +12726,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>5.4495735587552199</v>
+        <v>5</v>
       </c>
       <c r="B435">
         <v>7.54767949669038</v>
@@ -12718,7 +12737,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>2.0858201421797302</v>
+        <v>2</v>
       </c>
       <c r="B436">
         <v>3.4798114138236298</v>
@@ -12729,7 +12748,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6.5932633168995398</v>
+        <v>7</v>
       </c>
       <c r="B437">
         <v>3.5491568763486399</v>
@@ -12740,7 +12759,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1.0178504716604899</v>
+        <v>1</v>
       </c>
       <c r="B438">
         <v>7.2144797605772402</v>
@@ -12751,7 +12770,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>10.279122311621901</v>
+        <v>10</v>
       </c>
       <c r="B439">
         <v>4.6761218751880804</v>
@@ -12762,7 +12781,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>9.6911124531179702</v>
+        <v>10</v>
       </c>
       <c r="B440">
         <v>3.5161484581826299</v>
@@ -12773,7 +12792,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>7.2769174212589904</v>
+        <v>7</v>
       </c>
       <c r="B441">
         <v>11.893088058277201</v>
@@ -12784,7 +12803,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>8.8407035227864998</v>
+        <v>9</v>
       </c>
       <c r="B442">
         <v>8.0910904617081894</v>
@@ -12795,7 +12814,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>9.1456632222980296</v>
+        <v>9</v>
       </c>
       <c r="B443">
         <v>6.4509290243565802</v>
@@ -12806,7 +12825,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>6.0804455140605604</v>
+        <v>6</v>
       </c>
       <c r="B444">
         <v>5.7019537734048296</v>
@@ -12817,7 +12836,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>8.4851197712123394</v>
+        <v>8</v>
       </c>
       <c r="B445">
         <v>12.305893328667199</v>
@@ -12828,7 +12847,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>4.4368726126849696</v>
+        <v>4</v>
       </c>
       <c r="B446">
         <v>6.41050716125687</v>
@@ -12839,7 +12858,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>6.5002063605934399</v>
+        <v>7</v>
       </c>
       <c r="B447">
         <v>9.4410052899810601</v>
@@ -12850,7 +12869,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>2.4966155122965601</v>
+        <v>2</v>
       </c>
       <c r="B448">
         <v>5.73790215980749</v>
@@ -12861,7 +12880,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>9.1885356791317498</v>
+        <v>9</v>
       </c>
       <c r="B449">
         <v>4.7856942991615199</v>
@@ -12872,7 +12891,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>3.9364626556634899</v>
+        <v>4</v>
       </c>
       <c r="B450">
         <v>6.54450971444603</v>
@@ -12883,7 +12902,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>11.611111510544999</v>
+        <v>12</v>
       </c>
       <c r="B451">
         <v>4.7700975745262699</v>
@@ -12894,7 +12913,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>5.7628320995718196</v>
+        <v>6</v>
       </c>
       <c r="B452">
         <v>16.609466677374598</v>
@@ -12905,7 +12924,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>6.5986330434680003</v>
+        <v>7</v>
       </c>
       <c r="B453">
         <v>7.6592785544639899</v>
@@ -12916,7 +12935,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>7.3179572224617004</v>
+        <v>7</v>
       </c>
       <c r="B454">
         <v>3.6228567438547601</v>
@@ -12927,7 +12946,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1.2075620368123099</v>
+        <v>1</v>
       </c>
       <c r="B455">
         <v>3.5736884855238</v>
@@ -12938,7 +12957,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>6.7202520361170199</v>
+        <v>7</v>
       </c>
       <c r="B456">
         <v>7.44867081535509</v>
@@ -12949,7 +12968,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>0.32377420272678098</v>
+        <v>0</v>
       </c>
       <c r="B457">
         <v>3.9695336447676102</v>
@@ -12960,7 +12979,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>11.266308800317301</v>
+        <v>11</v>
       </c>
       <c r="B458">
         <v>6.49924524839453</v>
@@ -12971,7 +12990,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>5.4873770624399203</v>
+        <v>5</v>
       </c>
       <c r="B459">
         <v>14.4987172548631</v>
@@ -12982,7 +13001,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>7.3041326254606203</v>
+        <v>7</v>
       </c>
       <c r="B460">
         <v>5.8900154967470204</v>
@@ -12993,7 +13012,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>2.92559656407684</v>
+        <v>3</v>
       </c>
       <c r="B461">
         <v>3.52569173527267</v>
@@ -13004,7 +13023,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1.9050423894077499</v>
+        <v>2</v>
       </c>
       <c r="B462">
         <v>2.8297054047793502</v>
@@ -13015,7 +13034,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0.31677463743835699</v>
+        <v>0</v>
       </c>
       <c r="B463">
         <v>3.73739508945174</v>
@@ -13026,7 +13045,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>3.6900809928774798</v>
+        <v>4</v>
       </c>
       <c r="B464">
         <v>3.3606759952329202</v>
@@ -13037,7 +13056,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0.33842347003519502</v>
+        <v>0</v>
       </c>
       <c r="B465">
         <v>6.3574922038281798</v>
@@ -13048,7 +13067,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>9.3512275842949695</v>
+        <v>9</v>
       </c>
       <c r="B466">
         <v>6.6436385440132097</v>
@@ -13059,7 +13078,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>10.3266382673755</v>
+        <v>10</v>
       </c>
       <c r="B467">
         <v>16.415516547018999</v>
@@ -13070,7 +13089,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>9.0268355207517708</v>
+        <v>9</v>
       </c>
       <c r="B468">
         <v>3.6836261796043801</v>
@@ -13081,7 +13100,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>5.2957661664113402</v>
+        <v>5</v>
       </c>
       <c r="B469">
         <v>10.497413315727201</v>
@@ -13092,7 +13111,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>6.7155803767964199</v>
+        <v>7</v>
       </c>
       <c r="B470">
         <v>4.1595117112091797</v>
@@ -13103,7 +13122,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>4.3108865115791604</v>
+        <v>4</v>
       </c>
       <c r="B471">
         <v>5.1449596028170497</v>
@@ -13114,7 +13133,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>7.0719458861276498</v>
+        <v>7</v>
       </c>
       <c r="B472">
         <v>14.650604426638401</v>
@@ -13125,7 +13144,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>3.19584158342332</v>
+        <v>3</v>
       </c>
       <c r="B473">
         <v>5.4257340122425299</v>
@@ -13136,7 +13155,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>8.9368019085377508</v>
+        <v>9</v>
       </c>
       <c r="B474">
         <v>3.6318443950350798</v>
@@ -13147,7 +13166,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>8.5884035015478695</v>
+        <v>9</v>
       </c>
       <c r="B475">
         <v>2.9200437671625998</v>
@@ -13158,7 +13177,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>3.8726392379030599</v>
+        <v>4</v>
       </c>
       <c r="B476">
         <v>5.2729158652894004</v>
@@ -13169,7 +13188,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>2.9473431576043398</v>
+        <v>3</v>
       </c>
       <c r="B477">
         <v>7.2347858765000597</v>
@@ -13180,7 +13199,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3.3857025755569299</v>
+        <v>3</v>
       </c>
       <c r="B478">
         <v>5.6925140454979397</v>
@@ -13191,7 +13210,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1.64217476919293</v>
+        <v>2</v>
       </c>
       <c r="B479">
         <v>4.6829132662842596</v>
@@ -13202,7 +13221,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>7.5132182054221603</v>
+        <v>8</v>
       </c>
       <c r="B480">
         <v>3.8945052174883199</v>
@@ -13213,7 +13232,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>10.3310383558273</v>
+        <v>10</v>
       </c>
       <c r="B481">
         <v>3.4032471575585501</v>
@@ -13224,7 +13243,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>7.7986780274659404</v>
+        <v>8</v>
       </c>
       <c r="B482">
         <v>6.3749123675242299</v>
@@ -13235,7 +13254,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>10.698344307951601</v>
+        <v>11</v>
       </c>
       <c r="B483">
         <v>10.3572794277672</v>
@@ -13246,7 +13265,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>8.3789953049272299</v>
+        <v>8</v>
       </c>
       <c r="B484">
         <v>5.3035364411472701</v>
@@ -13257,7 +13276,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1.95271329861134</v>
+        <v>2</v>
       </c>
       <c r="B485">
         <v>1.8100982814280799</v>
@@ -13268,7 +13287,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>11.4868596224114</v>
+        <v>11</v>
       </c>
       <c r="B486">
         <v>5.5445721190628099</v>
@@ -13279,7 +13298,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>5.85185171943158</v>
+        <v>6</v>
       </c>
       <c r="B487">
         <v>17.1852913692206</v>
@@ -13290,7 +13309,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>5.4279179703444198</v>
+        <v>5</v>
       </c>
       <c r="B488">
         <v>12.1152748056431</v>
@@ -13301,7 +13320,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>5.4685968356207004</v>
+        <v>5</v>
       </c>
       <c r="B489">
         <v>11.0039645918704</v>
@@ -13312,7 +13331,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>7.5540605010464796</v>
+        <v>8</v>
       </c>
       <c r="B490">
         <v>5.4116140296733004</v>
@@ -13323,7 +13342,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>3.7415667492896301</v>
+        <v>4</v>
       </c>
       <c r="B491">
         <v>2.07162228876668</v>
@@ -13334,7 +13353,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1.6228057891130401</v>
+        <v>2</v>
       </c>
       <c r="B492">
         <v>4.0987560526088096</v>
@@ -13345,7 +13364,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>3.8462302945554301</v>
+        <v>4</v>
       </c>
       <c r="B493">
         <v>4.5915777434916603</v>
@@ -13356,7 +13375,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>11.1177783859894</v>
+        <v>11</v>
       </c>
       <c r="B494">
         <v>7.2230339101114103</v>
@@ -13367,7 +13386,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1.01375067885965</v>
+        <v>1</v>
       </c>
       <c r="B495">
         <v>6.7310247581940601</v>
@@ -13378,7 +13397,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>7.1661447593942302</v>
+        <v>7</v>
       </c>
       <c r="B496">
         <v>5.9704314040443203</v>
@@ -13389,7 +13408,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>6.8489207932725504</v>
+        <v>7</v>
       </c>
       <c r="B497">
         <v>4.8037070219619897</v>
@@ -13400,7 +13419,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3.1463144905865201</v>
+        <v>3</v>
       </c>
       <c r="B498">
         <v>4.2991955109537097</v>
@@ -13411,7 +13430,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>5.3969268221408102</v>
+        <v>5</v>
       </c>
       <c r="B499">
         <v>9.2894126061553894</v>
@@ -13422,7 +13441,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>11.2357091540471</v>
+        <v>11</v>
       </c>
       <c r="B500">
         <v>1.9308004281570501</v>
@@ -13433,7 +13452,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1.05220476072282</v>
+        <v>1</v>
       </c>
       <c r="B501">
         <v>2.6010062128115998</v>
@@ -13444,7 +13463,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>0.240342459641397</v>
+        <v>0</v>
       </c>
       <c r="B502">
         <v>4.2656426347564604</v>
@@ -13455,7 +13474,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>8.8653060821816307</v>
+        <v>9</v>
       </c>
       <c r="B503">
         <v>17.149768884890001</v>
@@ -13466,7 +13485,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>5.4099292047321796</v>
+        <v>5</v>
       </c>
       <c r="B504">
         <v>12.041464487429799</v>
@@ -13477,7 +13496,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>2.7074884492903899</v>
+        <v>3</v>
       </c>
       <c r="B505">
         <v>4.4313442891864199</v>
@@ -13488,7 +13507,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>5.7069944171235001</v>
+        <v>6</v>
       </c>
       <c r="B506">
         <v>16.867026038779301</v>
@@ -13499,7 +13518,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>6.9448776114732</v>
+        <v>7</v>
       </c>
       <c r="B507">
         <v>12.323420158705501</v>
@@ -13510,7 +13529,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>2.7318670107051699</v>
+        <v>3</v>
       </c>
       <c r="B508">
         <v>4.5829989484751996</v>
@@ -13521,7 +13540,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>8.3736971179023403</v>
+        <v>8</v>
       </c>
       <c r="B509">
         <v>11.004560329710101</v>
@@ -13532,7 +13551,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>4.9137993464246401</v>
+        <v>5</v>
       </c>
       <c r="B510">
         <v>9.0659690067213692</v>
@@ -13543,7 +13562,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>4.9518870972096902</v>
+        <v>5</v>
       </c>
       <c r="B511">
         <v>9.8138318036994594</v>
@@ -13554,7 +13573,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>2.4735487075522502</v>
+        <v>2</v>
       </c>
       <c r="B512">
         <v>6.0966907529328704</v>
@@ -13565,7 +13584,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>4.7889468446373904</v>
+        <v>5</v>
       </c>
       <c r="B513">
         <v>6.7492961901185202</v>
@@ -13576,7 +13595,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>11.8821530593559</v>
+        <v>12</v>
       </c>
       <c r="B514">
         <v>2.08617629333652</v>
@@ -13587,7 +13606,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>3.1765327742323302</v>
+        <v>3</v>
       </c>
       <c r="B515">
         <v>6.63231092411052</v>
@@ -13598,7 +13617,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>2.7495371578261301</v>
+        <v>3</v>
       </c>
       <c r="B516">
         <v>4.2291854903079997</v>
@@ -13609,7 +13628,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>5.5781119605526301</v>
+        <v>6</v>
       </c>
       <c r="B517">
         <v>13.4535899987072</v>
@@ -13620,7 +13639,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1.45824942179024</v>
+        <v>1</v>
       </c>
       <c r="B518">
         <v>4.4532414864117298</v>
@@ -13631,7 +13650,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>7.7469060570001602</v>
+        <v>8</v>
       </c>
       <c r="B519">
         <v>4.3250147309566902</v>
@@ -13642,7 +13661,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>9.4870425928384101</v>
+        <v>9</v>
       </c>
       <c r="B520">
         <v>4.7803143270388802</v>
@@ -13653,7 +13672,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>7.0826728250831401</v>
+        <v>7</v>
       </c>
       <c r="B521">
         <v>6.9392859729308203</v>
@@ -13664,7 +13683,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>3.9398338599130498</v>
+        <v>4</v>
       </c>
       <c r="B522">
         <v>4.7357042037934498</v>
@@ -13675,7 +13694,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>5.1562960417941204</v>
+        <v>5</v>
       </c>
       <c r="B523">
         <v>6.5219324081209802</v>
@@ -13686,7 +13705,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>0.35789182316511903</v>
+        <v>0</v>
       </c>
       <c r="B524">
         <v>5.8687194775178702</v>
@@ -13697,7 +13716,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>11.614742816425901</v>
+        <v>12</v>
       </c>
       <c r="B525">
         <v>4.3723544898189104</v>
@@ -13708,7 +13727,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>5.0633679404854801</v>
+        <v>5</v>
       </c>
       <c r="B526">
         <v>8.5259445559099305</v>
@@ -13719,7 +13738,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>9.3946056040003896</v>
+        <v>9</v>
       </c>
       <c r="B527">
         <v>9.4303724175268595</v>
@@ -13730,7 +13749,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>3.8514087963849302</v>
+        <v>4</v>
       </c>
       <c r="B528">
         <v>6.2008456058088397</v>
@@ -13741,7 +13760,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>4.6931614251807297</v>
+        <v>5</v>
       </c>
       <c r="B529">
         <v>8.3702845892032798</v>
@@ -13752,7 +13771,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>4.6464086780324596</v>
+        <v>5</v>
       </c>
       <c r="B530">
         <v>10.2060488306078</v>
@@ -13763,7 +13782,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>11.127246491611</v>
+        <v>11</v>
       </c>
       <c r="B531">
         <v>2.7473314104514901</v>
@@ -13774,7 +13793,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>0.96878825593739704</v>
+        <v>1</v>
       </c>
       <c r="B532">
         <v>5.2951825048778396</v>
@@ -13785,7 +13804,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>8.7240540208295005</v>
+        <v>9</v>
       </c>
       <c r="B533">
         <v>4.5135508555439197</v>
@@ -13796,7 +13815,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>9.2145341075956804</v>
+        <v>9</v>
       </c>
       <c r="B534">
         <v>12.035265101884599</v>
@@ -13807,7 +13826,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>6.3796726651489699</v>
+        <v>6</v>
       </c>
       <c r="B535">
         <v>4.6339429094981996</v>
@@ -13818,7 +13837,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>8.4228314235806501</v>
+        <v>8</v>
       </c>
       <c r="B536">
         <v>16.644769811798099</v>
@@ -13829,7 +13848,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>11.5933906864375</v>
+        <v>12</v>
       </c>
       <c r="B537">
         <v>4.6636249839785302</v>
@@ -13840,7 +13859,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>8.3573914384469408</v>
+        <v>8</v>
       </c>
       <c r="B538">
         <v>9.1022461548153295</v>
@@ -13851,7 +13870,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>9.6090889060869795</v>
+        <v>10</v>
       </c>
       <c r="B539">
         <v>9.8898217521559406</v>
@@ -13862,7 +13881,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>6.4466174673289096</v>
+        <v>6</v>
       </c>
       <c r="B540">
         <v>6.2790756830126497</v>
@@ -13873,7 +13892,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>0.73643670603632905</v>
+        <v>1</v>
       </c>
       <c r="B541">
         <v>5.10125942819713</v>
@@ -13884,7 +13903,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>2.2754632523283398</v>
+        <v>2</v>
       </c>
       <c r="B542">
         <v>3.7752505163446402</v>
@@ -13895,7 +13914,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1.3650417113676701</v>
+        <v>1</v>
       </c>
       <c r="B543">
         <v>3.1406031549800999</v>
@@ -13906,7 +13925,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1.0188424056395899</v>
+        <v>1</v>
       </c>
       <c r="B544">
         <v>4.2704182932158199</v>
@@ -13917,7 +13936,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1.30044607445598</v>
+        <v>1</v>
       </c>
       <c r="B545">
         <v>2.7429436243757199</v>
@@ -13928,7 +13947,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>9.6837190138176101</v>
+        <v>10</v>
       </c>
       <c r="B546">
         <v>6.87276285033834</v>
@@ -13939,7 +13958,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>6.6534972544759503</v>
+        <v>7</v>
       </c>
       <c r="B547">
         <v>6.8463451591305198</v>
@@ -13950,7 +13969,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>7.2827351940795797</v>
+        <v>7</v>
       </c>
       <c r="B548">
         <v>4.3151598256958099</v>
@@ -13961,7 +13980,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>7.9432707522064403</v>
+        <v>8</v>
       </c>
       <c r="B549">
         <v>13.3972896204422</v>
@@ -13972,7 +13991,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>6.6908736778423199</v>
+        <v>7</v>
       </c>
       <c r="B550">
         <v>4.6352910035267501</v>
@@ -13983,7 +14002,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>4.4102529007941502</v>
+        <v>4</v>
       </c>
       <c r="B551">
         <v>6.5709583298656904</v>
@@ -13994,7 +14013,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>3.4194176523014899</v>
+        <v>3</v>
       </c>
       <c r="B552">
         <v>4.0404687805474699</v>
@@ -14005,7 +14024,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>11.192704282700999</v>
+        <v>11</v>
       </c>
       <c r="B553">
         <v>4.7779607878920896</v>
@@ -14016,7 +14035,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>10.2558251554146</v>
+        <v>10</v>
       </c>
       <c r="B554">
         <v>6.60952752168056</v>
@@ -14027,7 +14046,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>6.3621109155938003</v>
+        <v>6</v>
       </c>
       <c r="B555">
         <v>5.9442009256483201</v>
@@ -14038,7 +14057,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>4.1502412995323503</v>
+        <v>4</v>
       </c>
       <c r="B556">
         <v>6.7477888902161203</v>
@@ -14049,7 +14068,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0.393562082201242</v>
+        <v>0</v>
       </c>
       <c r="B557">
         <v>4.5658693494042204</v>
@@ -14060,7 +14079,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>10.3539418475702</v>
+        <v>10</v>
       </c>
       <c r="B558">
         <v>8.5571788941046893</v>
@@ -14071,7 +14090,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>7.9243220658972904</v>
+        <v>8</v>
       </c>
       <c r="B559">
         <v>6.3208334838638898</v>
@@ -14082,7 +14101,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>3.4188495939597501</v>
+        <v>3</v>
       </c>
       <c r="B560">
         <v>4.4743311419826801</v>
@@ -14093,7 +14112,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>9.5239240648224897</v>
+        <v>10</v>
       </c>
       <c r="B561">
         <v>8.4783650879372292</v>
@@ -14104,7 +14123,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1.9733621785417199</v>
+        <v>2</v>
       </c>
       <c r="B562">
         <v>4.9070700705925603</v>
@@ -14115,7 +14134,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>8.5742704058065993</v>
+        <v>9</v>
       </c>
       <c r="B563">
         <v>10.388959113169999</v>
@@ -14126,7 +14145,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>6.5959520582109699</v>
+        <v>7</v>
       </c>
       <c r="B564">
         <v>5.5360325598086497</v>
@@ -14137,7 +14156,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>7.9223588230088398</v>
+        <v>8</v>
       </c>
       <c r="B565">
         <v>5.2490958394524396</v>
@@ -14148,7 +14167,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>9.6850380348041707</v>
+        <v>10</v>
       </c>
       <c r="B566">
         <v>3.8145082849738001</v>
@@ -14159,7 +14178,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>8.4639817206189001</v>
+        <v>8</v>
       </c>
       <c r="B567">
         <v>3.3120268473285002</v>
@@ -14170,7 +14189,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1.8935428149998199</v>
+        <v>2</v>
       </c>
       <c r="B568">
         <v>4.7842819126871898</v>
@@ -14181,7 +14200,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>11.067883112467801</v>
+        <v>11</v>
       </c>
       <c r="B569">
         <v>4.4043095561906602</v>
@@ -14192,7 +14211,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>10.551905103027799</v>
+        <v>11</v>
       </c>
       <c r="B570">
         <v>2.79622844538709</v>
@@ -14203,7 +14222,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>5.8625814663246301</v>
+        <v>6</v>
       </c>
       <c r="B571">
         <v>17.5633834754376</v>
@@ -14214,7 +14233,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>2.7298391209915298</v>
+        <v>3</v>
       </c>
       <c r="B572">
         <v>3.1668282509779502</v>
@@ -14225,7 +14244,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>5.5040482683107301</v>
+        <v>6</v>
       </c>
       <c r="B573">
         <v>12.267065293962901</v>
@@ -14236,7 +14255,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>3.1845008488744502</v>
+        <v>3</v>
       </c>
       <c r="B574">
         <v>3.0785992493161798</v>
@@ -14247,7 +14266,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>7.2806483041495103</v>
+        <v>7</v>
       </c>
       <c r="B575">
         <v>6.6024415106951198</v>
@@ -14258,7 +14277,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>7.5492231734097004</v>
+        <v>8</v>
       </c>
       <c r="B576">
         <v>4.1894485070112601</v>
@@ -14269,7 +14288,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>2.5566495526581998</v>
+        <v>3</v>
       </c>
       <c r="B577">
         <v>3.8746899219377502</v>
@@ -14280,7 +14299,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>7.7685557361692199</v>
+        <v>8</v>
       </c>
       <c r="B578">
         <v>6.9021402993606298</v>
@@ -14291,7 +14310,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>6.24519979767501</v>
+        <v>6</v>
       </c>
       <c r="B579">
         <v>4.7430810001393402</v>
@@ -14302,7 +14321,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>4.2029236843809503</v>
+        <v>4</v>
       </c>
       <c r="B580">
         <v>4.6125404412535396</v>
@@ -14313,7 +14332,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>11.513514610938699</v>
+        <v>12</v>
       </c>
       <c r="B581">
         <v>4.5672541921201804</v>
@@ -14324,7 +14343,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0.92859213240444705</v>
+        <v>1</v>
       </c>
       <c r="B582">
         <v>5.3554460865221296</v>
@@ -14335,7 +14354,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0.70966200716793504</v>
+        <v>1</v>
       </c>
       <c r="B583">
         <v>3.2927124475012599</v>
@@ -14346,7 +14365,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>5.0590134579688302</v>
+        <v>5</v>
       </c>
       <c r="B584">
         <v>6.7411115809546001</v>
@@ -14357,7 +14376,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>8.8188315024599397</v>
+        <v>9</v>
       </c>
       <c r="B585">
         <v>5.0246301484547304</v>
@@ -14368,7 +14387,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>9.3293826822191495</v>
+        <v>9</v>
       </c>
       <c r="B586">
         <v>4.80899468209694</v>
@@ -14379,7 +14398,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>6.37235982622951</v>
+        <v>6</v>
       </c>
       <c r="B587">
         <v>17.607831894340801</v>
@@ -14390,7 +14409,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>2.5801587626338001</v>
+        <v>3</v>
       </c>
       <c r="B588">
         <v>7.07058214862698</v>
@@ -14401,7 +14420,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>5.1177270328626001</v>
+        <v>5</v>
       </c>
       <c r="B589">
         <v>7.8240587314880203</v>
@@ -14412,7 +14431,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>7.3140693018212897</v>
+        <v>7</v>
       </c>
       <c r="B590">
         <v>3.2614709417510701</v>
@@ -14423,7 +14442,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0.30911415349692101</v>
+        <v>0</v>
       </c>
       <c r="B591">
         <v>5.4463983154843501</v>
@@ -14434,7 +14453,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>2.7625472266226998</v>
+        <v>3</v>
       </c>
       <c r="B592">
         <v>3.9307771878951998</v>
@@ -14445,7 +14464,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>2.3655019272118798</v>
+        <v>2</v>
       </c>
       <c r="B593">
         <v>4.0017697677673398</v>
@@ -14456,7 +14475,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>0.61158938705921195</v>
+        <v>1</v>
       </c>
       <c r="B594">
         <v>6.6855054403810703</v>
@@ -14467,7 +14486,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>10.876165070571</v>
+        <v>11</v>
       </c>
       <c r="B595">
         <v>12.1513200242126</v>
@@ -14478,7 +14497,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>9.03810417372733</v>
+        <v>9</v>
       </c>
       <c r="B596">
         <v>3.2020446837580798</v>
@@ -14489,7 +14508,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>9.8625147789716703</v>
+        <v>10</v>
       </c>
       <c r="B597">
         <v>4.0272805924728203</v>
@@ -14500,7 +14519,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>8.1850452711805701</v>
+        <v>8</v>
       </c>
       <c r="B598">
         <v>4.7519289734415402</v>
@@ -14511,7 +14530,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>9.142642904073</v>
+        <v>9</v>
       </c>
       <c r="B599">
         <v>5.4451782708190004</v>
@@ -14522,7 +14541,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>3.77672456949949</v>
+        <v>4</v>
       </c>
       <c r="B600">
         <v>5.7386928218759703</v>
@@ -14533,7 +14552,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>3.6677064774557899</v>
+        <v>4</v>
       </c>
       <c r="B601">
         <v>8.0991506515599792</v>
@@ -14544,7 +14563,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1.67892832774669</v>
+        <v>2</v>
       </c>
       <c r="B602">
         <v>3.4388042368356002</v>
@@ -14555,7 +14574,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>7.1152593009173898E-2</v>
+        <v>0</v>
       </c>
       <c r="B603">
         <v>1.4200234634597999</v>
@@ -14566,7 +14585,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>10.594072407111501</v>
+        <v>11</v>
       </c>
       <c r="B604">
         <v>3.39475980614161</v>
@@ -14577,7 +14596,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>0.87865499127656199</v>
+        <v>1</v>
       </c>
       <c r="B605">
         <v>6.3673760635191803</v>
@@ -14588,7 +14607,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>4.7964156819507497</v>
+        <v>5</v>
       </c>
       <c r="B606">
         <v>8.9441840940001693</v>
@@ -14599,7 +14618,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>4.4167190976440898</v>
+        <v>4</v>
       </c>
       <c r="B607">
         <v>10.2365326270992</v>
@@ -14610,7 +14629,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>11.5036124596372</v>
+        <v>12</v>
       </c>
       <c r="B608">
         <v>6.6612561062673503</v>
@@ -14621,7 +14640,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>7.52398902922869</v>
+        <v>8</v>
       </c>
       <c r="B609">
         <v>7.3317211179623198</v>
@@ -14632,7 +14651,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>11.183973695151501</v>
+        <v>11</v>
       </c>
       <c r="B610">
         <v>7.8277142094172696</v>
@@ -14643,7 +14662,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>11.865108517929899</v>
+        <v>12</v>
       </c>
       <c r="B611">
         <v>5.5182440196520197</v>
@@ -14654,7 +14673,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>5.2978034690022504</v>
+        <v>5</v>
       </c>
       <c r="B612">
         <v>11.207217442395001</v>
@@ -14665,7 +14684,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>11.7378352917731</v>
+        <v>12</v>
       </c>
       <c r="B613">
         <v>4.0647295508275096</v>
@@ -14676,7 +14695,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>8.4623592747375405</v>
+        <v>8</v>
       </c>
       <c r="B614">
         <v>4.1385364776484002</v>
@@ -14687,7 +14706,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>2.7942500459030302</v>
+        <v>3</v>
       </c>
       <c r="B615">
         <v>4.5243978102887104</v>
@@ -14698,7 +14717,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>1.1623326474800699</v>
+        <v>1</v>
       </c>
       <c r="B616">
         <v>5.4786751782957301</v>
@@ -14709,7 +14728,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>7.8289542803540799</v>
+        <v>8</v>
       </c>
       <c r="B617">
         <v>6.7807971719758404</v>
@@ -14720,7 +14739,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>9.8884406173601693</v>
+        <v>10</v>
       </c>
       <c r="B618">
         <v>5.8946359002930597</v>
@@ -14731,7 +14750,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>4.4724681777879596</v>
+        <v>4</v>
       </c>
       <c r="B619">
         <v>10.6132257049528</v>
@@ -14742,7 +14761,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>6.92353611532599</v>
+        <v>7</v>
       </c>
       <c r="B620">
         <v>8.3066182242535103</v>
@@ -14753,7 +14772,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>6.6280388329178104</v>
+        <v>7</v>
       </c>
       <c r="B621">
         <v>3.5909912866587099</v>
@@ -14764,7 +14783,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>8.6104492368176597</v>
+        <v>9</v>
       </c>
       <c r="B622">
         <v>1.5424219063118001</v>
@@ -14775,7 +14794,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>6.9189635105431098</v>
+        <v>7</v>
       </c>
       <c r="B623">
         <v>6.5565262524700598</v>
@@ -14786,7 +14805,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>6.8529488509520897</v>
+        <v>7</v>
       </c>
       <c r="B624">
         <v>9.0263383284701497</v>
@@ -14797,7 +14816,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1.38011127803475</v>
+        <v>1</v>
       </c>
       <c r="B625">
         <v>3.3482674762463298</v>
@@ -14808,7 +14827,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>5.8057497516274497</v>
+        <v>6</v>
       </c>
       <c r="B626">
         <v>12.3185542199703</v>
@@ -14819,7 +14838,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>5.0804026890546101</v>
+        <v>5</v>
       </c>
       <c r="B627">
         <v>10.4370055707537</v>
@@ -14830,7 +14849,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>6.3563047992065496</v>
+        <v>6</v>
       </c>
       <c r="B628">
         <v>10.322073454469599</v>
@@ -14841,7 +14860,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>7.1208557998761499</v>
+        <v>7</v>
       </c>
       <c r="B629">
         <v>11.335124087152501</v>
@@ -14852,7 +14871,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>3.6031212816014899</v>
+        <v>4</v>
       </c>
       <c r="B630">
         <v>7.0015551926870003</v>
@@ -14863,7 +14882,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>10.015177485533099</v>
+        <v>10</v>
       </c>
       <c r="B631">
         <v>4.6435898135470204</v>
@@ -14874,7 +14893,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1.53312385361642</v>
+        <v>2</v>
       </c>
       <c r="B632">
         <v>4.4409347688281704</v>
@@ -14885,7 +14904,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>1.89290012978017</v>
+        <v>2</v>
       </c>
       <c r="B633">
         <v>3.6659330914660702</v>
@@ -14896,7 +14915,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>9.8455438921228104</v>
+        <v>10</v>
       </c>
       <c r="B634">
         <v>5.6998118075183504</v>
@@ -14907,7 +14926,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>9.2397361351177096</v>
+        <v>9</v>
       </c>
       <c r="B635">
         <v>10.7179422461043</v>
@@ -14918,7 +14937,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>10.0864799190313</v>
+        <v>10</v>
       </c>
       <c r="B636">
         <v>3.4836076073426101</v>
@@ -14929,7 +14948,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>4.0092700487002704</v>
+        <v>4</v>
       </c>
       <c r="B637">
         <v>5.9164857172993202</v>
@@ -14940,7 +14959,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>4.1597778964787704</v>
+        <v>4</v>
       </c>
       <c r="B638">
         <v>3.18091673073635</v>
@@ -14951,7 +14970,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1.3782680276781301</v>
+        <v>1</v>
       </c>
       <c r="B639">
         <v>5.5494518467601797</v>
@@ -14962,7 +14981,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>6.59412281680852</v>
+        <v>7</v>
       </c>
       <c r="B640">
         <v>12.425821922651499</v>
@@ -14973,7 +14992,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>10.933800349943301</v>
+        <v>11</v>
       </c>
       <c r="B641">
         <v>10.607967357415401</v>
@@ -14984,7 +15003,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>8.9425051035359502</v>
+        <v>9</v>
       </c>
       <c r="B642">
         <v>7.1864712595839002</v>
@@ -14995,7 +15014,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>9.3393147820606792</v>
+        <v>9</v>
       </c>
       <c r="B643">
         <v>4.5592114620617199</v>
@@ -15006,7 +15025,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>4.1082071056589502</v>
+        <v>4</v>
       </c>
       <c r="B644">
         <v>8.23048066524726</v>
@@ -15017,7 +15036,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1.0254373624920801</v>
+        <v>1</v>
       </c>
       <c r="B645">
         <v>6.0411921634648396</v>
@@ -15028,7 +15047,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>3.0334184719249602</v>
+        <v>3</v>
       </c>
       <c r="B646">
         <v>5.83111366539391</v>
@@ -15039,7 +15058,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>8.1204495672136492</v>
+        <v>8</v>
       </c>
       <c r="B647">
         <v>3.79453905012257</v>
@@ -15050,7 +15069,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>2.7829046817496401</v>
+        <v>3</v>
       </c>
       <c r="B648">
         <v>5.3256606716822201</v>
@@ -15061,7 +15080,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1.33789043873549</v>
+        <v>1</v>
       </c>
       <c r="B649">
         <v>7.9000424652723904</v>
@@ -15072,7 +15091,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>6.0427722204476604</v>
+        <v>6</v>
       </c>
       <c r="B650">
         <v>6.0169337117017303</v>
@@ -15083,7 +15102,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>10.729877821169801</v>
+        <v>11</v>
       </c>
       <c r="B651">
         <v>3.3023646929833501</v>
@@ -15094,7 +15113,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>4.0607597334310404</v>
+        <v>4</v>
       </c>
       <c r="B652">
         <v>4.3822507936093098</v>
@@ -15105,7 +15124,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>10.9144308222458</v>
+        <v>11</v>
       </c>
       <c r="B653">
         <v>5.6801413411610699</v>
@@ -15116,7 +15135,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>5.7545321378856897</v>
+        <v>6</v>
       </c>
       <c r="B654">
         <v>13.770405690625999</v>
@@ -15127,7 +15146,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>6.0401406772434703</v>
+        <v>6</v>
       </c>
       <c r="B655">
         <v>8.4153033138853406</v>
@@ -15138,7 +15157,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>7.7709147473797202</v>
+        <v>8</v>
       </c>
       <c r="B656">
         <v>6.2348896171952699</v>
@@ -15149,7 +15168,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>2.9275558870285701</v>
+        <v>3</v>
       </c>
       <c r="B657">
         <v>2.59584458349988</v>
@@ -15160,7 +15179,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>9.0051144529134</v>
+        <v>9</v>
       </c>
       <c r="B658">
         <v>6.0440832383772998</v>
@@ -15171,7 +15190,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>9.80127944145352</v>
+        <v>10</v>
       </c>
       <c r="B659">
         <v>5.4911868782875004</v>
@@ -15182,7 +15201,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>7.8353058993816402</v>
+        <v>8</v>
       </c>
       <c r="B660">
         <v>8.0182425604590009</v>
@@ -15193,7 +15212,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>1.6911591896787299</v>
+        <v>2</v>
       </c>
       <c r="B661">
         <v>4.31610642663993</v>
@@ -15204,7 +15223,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>2.7979994192719501E-2</v>
+        <v>0</v>
       </c>
       <c r="B662">
         <v>1.3960917939516699</v>
@@ -15215,7 +15234,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>6.3860461274161899</v>
+        <v>6</v>
       </c>
       <c r="B663">
         <v>4.6112448989608401</v>
@@ -15226,7 +15245,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1.2123626768589</v>
+        <v>1</v>
       </c>
       <c r="B664">
         <v>4.2807370982531703</v>
@@ -15237,7 +15256,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>7.1229141131043399</v>
+        <v>7</v>
       </c>
       <c r="B665">
         <v>13.719882780164699</v>
@@ -15248,7 +15267,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>5.8742185151204502</v>
+        <v>6</v>
       </c>
       <c r="B666">
         <v>7.7335709156986301</v>
@@ -15259,7 +15278,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>0.69219603482633796</v>
+        <v>1</v>
       </c>
       <c r="B667">
         <v>3.0237751703537099</v>
@@ -15270,7 +15289,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>7.3396473191678496E-2</v>
+        <v>0</v>
       </c>
       <c r="B668">
         <v>3.6494438406259602</v>
@@ -15281,7 +15300,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>3.2650718735530999</v>
+        <v>3</v>
       </c>
       <c r="B669">
         <v>4.0360022159759401</v>
@@ -15292,7 +15311,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>3.2465139264240901</v>
+        <v>3</v>
       </c>
       <c r="B670">
         <v>5.1232289616134201</v>
@@ -15303,7 +15322,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>11.1235405113548</v>
+        <v>11</v>
       </c>
       <c r="B671">
         <v>2.7224864538173299</v>
@@ -15314,7 +15333,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>0.67556631099432696</v>
+        <v>1</v>
       </c>
       <c r="B672">
         <v>2.89035521687584</v>
@@ -15325,7 +15344,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>0.357861863449216</v>
+        <v>0</v>
       </c>
       <c r="B673">
         <v>5.0370030042446396</v>
@@ -15336,7 +15355,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>9.5013177953660502E-2</v>
+        <v>0</v>
       </c>
       <c r="B674">
         <v>3.2249921921150202</v>
@@ -15347,7 +15366,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>3.14940063748509</v>
+        <v>3</v>
       </c>
       <c r="B675">
         <v>3.96309425018358</v>
@@ -15358,7 +15377,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>4.4279517978429803</v>
+        <v>4</v>
       </c>
       <c r="B676">
         <v>9.0079840762967809</v>
@@ -15369,7 +15388,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>7.5991591885685903</v>
+        <v>8</v>
       </c>
       <c r="B677">
         <v>4.4547724720791297</v>
@@ -15380,7 +15399,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>6.8717406783252999</v>
+        <v>7</v>
       </c>
       <c r="B678">
         <v>1.5322186582145301</v>
@@ -15391,7 +15410,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>9.5283713210374099</v>
+        <v>10</v>
       </c>
       <c r="B679">
         <v>4.4558547256296199</v>
@@ -15402,7 +15421,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>3.6547397542744902</v>
+        <v>4</v>
       </c>
       <c r="B680">
         <v>6.8564229529242997</v>
@@ -15413,7 +15432,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.45927733182907099</v>
+        <v>0</v>
       </c>
       <c r="B681">
         <v>7.0579135702390703</v>
@@ -15424,7 +15443,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>10.843696505762599</v>
+        <v>11</v>
       </c>
       <c r="B682">
         <v>7.5973767819229998</v>
@@ -15435,7 +15454,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>11.9805156569928</v>
+        <v>12</v>
       </c>
       <c r="B683">
         <v>3.0385308712383599</v>
@@ -15446,7 +15465,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>4.4938872428610903</v>
+        <v>4</v>
       </c>
       <c r="B684">
         <v>10.326754191960401</v>
@@ -15457,7 +15476,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>4.2946585882455102</v>
+        <v>4</v>
       </c>
       <c r="B685">
         <v>6.4583806726430097</v>
@@ -15468,7 +15487,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>5.2418690007180002</v>
+        <v>5</v>
       </c>
       <c r="B686">
         <v>11.9077844882455</v>
@@ -15479,7 +15498,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>1.4499582303687899</v>
+        <v>1</v>
       </c>
       <c r="B687">
         <v>3.8136499755145001</v>
@@ -15490,7 +15509,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>10.9652080731466</v>
+        <v>11</v>
       </c>
       <c r="B688">
         <v>3.7105581107943202</v>
@@ -15501,7 +15520,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>9.1528763137757796</v>
+        <v>9</v>
       </c>
       <c r="B689">
         <v>4.2206421465504498</v>
@@ -15512,7 +15531,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>9.4083098089322394</v>
+        <v>9</v>
       </c>
       <c r="B690">
         <v>5.1687225643821701</v>
@@ -15523,7 +15542,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>3.4964220235124199</v>
+        <v>3</v>
       </c>
       <c r="B691">
         <v>5.9444338533412102</v>
@@ -15534,7 +15553,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>0.34386613033711899</v>
+        <v>0</v>
       </c>
       <c r="B692">
         <v>2.9031430329539698</v>
@@ -15545,7 +15564,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>10.052509278059</v>
+        <v>10</v>
       </c>
       <c r="B693">
         <v>3.0570173555111402</v>
@@ -15556,7 +15575,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>3.61415272112936</v>
+        <v>4</v>
       </c>
       <c r="B694">
         <v>7.3642848107713004</v>
@@ -15567,7 +15586,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>5.4144268054515097</v>
+        <v>5</v>
       </c>
       <c r="B695">
         <v>9.5709988386139404</v>
@@ -15578,7 +15597,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>5.0224723890423801</v>
+        <v>5</v>
       </c>
       <c r="B696">
         <v>8.2175749555463398</v>
@@ -15589,7 +15608,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>8.0117498589679599</v>
+        <v>8</v>
       </c>
       <c r="B697">
         <v>5.2203196487194203</v>
@@ -15600,7 +15619,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>4.9768790686503097</v>
+        <v>5</v>
       </c>
       <c r="B698">
         <v>6.4250785845855196</v>
@@ -15611,7 +15630,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>9.2792849214747495</v>
+        <v>9</v>
       </c>
       <c r="B699">
         <v>3.3669591025934702</v>
@@ -15622,7 +15641,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>8.9132863059639895</v>
+        <v>9</v>
       </c>
       <c r="B700">
         <v>4.1069334838131804</v>
@@ -15633,7 +15652,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>6.5477470429614204</v>
+        <v>7</v>
       </c>
       <c r="B701">
         <v>9.1270465373464393</v>
@@ -15644,7 +15663,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>8.0835684612393397</v>
+        <v>8</v>
       </c>
       <c r="B702">
         <v>7.0454818197598996</v>
@@ -15655,7 +15674,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>6.2546550063416397</v>
+        <v>6</v>
       </c>
       <c r="B703">
         <v>7.2210386197489704</v>
@@ -15666,7 +15685,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>4.6882505016401401</v>
+        <v>5</v>
       </c>
       <c r="B704">
         <v>9.9189749476836901</v>
@@ -15677,7 +15696,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>9.4900893336162007</v>
+        <v>9</v>
       </c>
       <c r="B705">
         <v>10.499366736374</v>
@@ -15688,7 +15707,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>0.70339077897369895</v>
+        <v>1</v>
       </c>
       <c r="B706">
         <v>5.6573618373803001</v>
@@ -15699,7 +15718,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>7.8128136685118097</v>
+        <v>8</v>
       </c>
       <c r="B707">
         <v>6.5776629656375096</v>
@@ -15710,7 +15729,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>8.5963641945272702</v>
+        <v>9</v>
       </c>
       <c r="B708">
         <v>11.940823909790801</v>
@@ -15721,7 +15740,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>9.8343106107786298</v>
+        <v>10</v>
       </c>
       <c r="B709">
         <v>3.9101880043108701</v>
@@ -15732,7 +15751,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>5.6936530703678701</v>
+        <v>6</v>
       </c>
       <c r="B710">
         <v>17.2790093115381</v>
@@ -15743,7 +15762,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>1.20642891805619</v>
+        <v>1</v>
       </c>
       <c r="B711">
         <v>4.4237559772495301</v>
@@ -15754,7 +15773,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>5.6922728950157797</v>
+        <v>6</v>
       </c>
       <c r="B712">
         <v>13.255712678358799</v>
@@ -15765,7 +15784,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>6.5656282184645498</v>
+        <v>7</v>
       </c>
       <c r="B713">
         <v>6.0584443815308298</v>
@@ -15776,7 +15795,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>2.0969232888892302</v>
+        <v>2</v>
       </c>
       <c r="B714">
         <v>2.8205372024130102</v>
@@ -15787,7 +15806,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>10.3281566044316</v>
+        <v>10</v>
       </c>
       <c r="B715">
         <v>3.0035005886902502</v>
@@ -15798,7 +15817,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>5.1992215840145901</v>
+        <v>5</v>
       </c>
       <c r="B716">
         <v>9.19311632242092</v>
@@ -15809,7 +15828,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>6.6832179212942702</v>
+        <v>7</v>
       </c>
       <c r="B717">
         <v>7.4831610189662401</v>
@@ -15820,7 +15839,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>1.66438822355121</v>
+        <v>2</v>
       </c>
       <c r="B718">
         <v>5.9158055440940496</v>
@@ -15831,7 +15850,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>9.6595258573070204</v>
+        <v>10</v>
       </c>
       <c r="B719">
         <v>9.6210548293551099</v>
@@ -15842,7 +15861,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>4.4717038292437801</v>
+        <v>4</v>
       </c>
       <c r="B720">
         <v>6.7616000842433799</v>
@@ -15853,7 +15872,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>6.5975422337651297</v>
+        <v>7</v>
       </c>
       <c r="B721">
         <v>8.3230750172708596</v>
@@ -15864,7 +15883,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>11.058328128419801</v>
+        <v>11</v>
       </c>
       <c r="B722">
         <v>6.5231797323126797</v>
@@ -15875,7 +15894,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>7.2880309531465199</v>
+        <v>7</v>
       </c>
       <c r="B723">
         <v>9.9239072265836903</v>
@@ -15886,7 +15905,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>2.3051132094115001</v>
+        <v>2</v>
       </c>
       <c r="B724">
         <v>2.96750565409002</v>
@@ -15897,7 +15916,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>3.0478552607819398</v>
+        <v>3</v>
       </c>
       <c r="B725">
         <v>6.5235882279777</v>
@@ -15908,7 +15927,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>9.3469976289197803</v>
+        <v>9</v>
       </c>
       <c r="B726">
         <v>5.7547301951352798</v>
@@ -15919,7 +15938,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>8.5640826523304003</v>
+        <v>9</v>
       </c>
       <c r="B727">
         <v>17.170066328987001</v>
@@ -15930,7 +15949,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>7.1643738532438901</v>
+        <v>7</v>
       </c>
       <c r="B728">
         <v>4.6035140478619496</v>
@@ -15941,7 +15960,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>7.8776577142998603</v>
+        <v>8</v>
       </c>
       <c r="B729">
         <v>13.312070311027</v>
@@ -15952,7 +15971,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>9.6158925583586097</v>
+        <v>10</v>
       </c>
       <c r="B730">
         <v>2.9977849496050202</v>
@@ -15963,7 +15982,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>9.5059441085904801</v>
+        <v>10</v>
       </c>
       <c r="B731">
         <v>9.1778188948802004</v>
@@ -15974,7 +15993,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>9.3616751991212404</v>
+        <v>9</v>
       </c>
       <c r="B732">
         <v>6.1442424224604499</v>
@@ -15985,7 +16004,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>6.3936932701617497</v>
+        <v>6</v>
       </c>
       <c r="B733">
         <v>6.9237289845566101</v>
@@ -15996,7 +16015,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>6.3570425994694197</v>
+        <v>6</v>
       </c>
       <c r="B734">
         <v>3.1863838712549701</v>
@@ -16007,7 +16026,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>5.0589309269562399</v>
+        <v>5</v>
       </c>
       <c r="B735">
         <v>9.5545147461491506</v>
@@ -16018,7 +16037,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>7.2402727464214003</v>
+        <v>7</v>
       </c>
       <c r="B736">
         <v>6.6916344726770998</v>
@@ -16029,7 +16048,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>10.629400340840199</v>
+        <v>11</v>
       </c>
       <c r="B737">
         <v>9.5204650164293394</v>
@@ -16040,7 +16059,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>9.8475276594981604</v>
+        <v>10</v>
       </c>
       <c r="B738">
         <v>2.2954973307014899</v>
@@ -16051,7 +16070,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>11.6291178502142</v>
+        <v>12</v>
       </c>
       <c r="B739">
         <v>4.8707622014290202</v>
@@ -16062,7 +16081,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>9.9504930116236192</v>
+        <v>10</v>
       </c>
       <c r="B740">
         <v>4.5756379062264001</v>
@@ -16073,7 +16092,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>1.80930863041431</v>
+        <v>2</v>
       </c>
       <c r="B741">
         <v>2.18535405665502</v>
@@ -16084,7 +16103,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>11.648019008338499</v>
+        <v>12</v>
       </c>
       <c r="B742">
         <v>3.4369325755843998</v>
@@ -16095,7 +16114,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>0.91609021928161405</v>
+        <v>1</v>
       </c>
       <c r="B743">
         <v>4.8752795794106696</v>
@@ -16106,7 +16125,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>3.5365822557359898</v>
+        <v>4</v>
       </c>
       <c r="B744">
         <v>4.4340764043988496</v>
@@ -16117,7 +16136,7 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>11.8079541167244</v>
+        <v>12</v>
       </c>
       <c r="B745">
         <v>4.6835927055432602</v>
@@ -16128,7 +16147,7 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>3.04371365904808</v>
+        <v>3</v>
       </c>
       <c r="B746">
         <v>3.3472137233804999</v>
@@ -16139,7 +16158,7 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>1.36905558407307</v>
+        <v>1</v>
       </c>
       <c r="B747">
         <v>4.6444417515956902</v>
@@ -16150,7 +16169,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>11.5420764293522</v>
+        <v>12</v>
       </c>
       <c r="B748">
         <v>5.5842257832099103</v>
@@ -16161,7 +16180,7 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>4.7000686358660504</v>
+        <v>5</v>
       </c>
       <c r="B749">
         <v>5.6019831503123498</v>
@@ -16172,7 +16191,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>3.1706786379218102</v>
+        <v>3</v>
       </c>
       <c r="B750">
         <v>3.67324922115924</v>
@@ -16183,7 +16202,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>2.0801791604608302</v>
+        <v>2</v>
       </c>
       <c r="B751">
         <v>6.3465001380965598</v>
@@ -16194,7 +16213,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>10.7497578207403</v>
+        <v>11</v>
       </c>
       <c r="B752">
         <v>3.7514626073823201</v>
@@ -16205,7 +16224,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>1.3367617987096301</v>
+        <v>1</v>
       </c>
       <c r="B753">
         <v>3.9613558621925602</v>
@@ -16216,7 +16235,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>4.8466891776770398</v>
+        <v>5</v>
       </c>
       <c r="B754">
         <v>8.8405955814945898</v>
@@ -16227,7 +16246,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>0.71185788139700901</v>
+        <v>1</v>
       </c>
       <c r="B755">
         <v>2.5978589404978298</v>
@@ -16238,7 +16257,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>9.4317293213680404</v>
+        <v>9</v>
       </c>
       <c r="B756">
         <v>6.4228159956375102</v>
@@ -16249,7 +16268,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>4.8668830823153302</v>
+        <v>5</v>
       </c>
       <c r="B757">
         <v>7.0600543900527999</v>
@@ -16260,7 +16279,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>9.2796021793037706</v>
+        <v>9</v>
       </c>
       <c r="B758">
         <v>4.1725701943206497</v>
@@ -16271,7 +16290,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>4.0686055636033398</v>
+        <v>4</v>
       </c>
       <c r="B759">
         <v>2.5911875216090698</v>
@@ -16282,7 +16301,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>0.13394835591316201</v>
+        <v>0</v>
       </c>
       <c r="B760">
         <v>8.2680897011563097</v>
@@ -16293,7 +16312,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>3.9860290065407802</v>
+        <v>4</v>
       </c>
       <c r="B761">
         <v>5.4124250150555602</v>
@@ -16304,7 +16323,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>6.4854880068451202</v>
+        <v>6</v>
       </c>
       <c r="B762">
         <v>8.8535389486579401</v>
@@ -16315,7 +16334,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>1.58634553011507</v>
+        <v>2</v>
       </c>
       <c r="B763">
         <v>3.1551540996134499</v>
@@ -16326,7 +16345,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>1.81976278312504</v>
+        <v>2</v>
       </c>
       <c r="B764">
         <v>3.3608139101093699</v>
@@ -16337,7 +16356,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>2.8712871875613901</v>
+        <v>3</v>
       </c>
       <c r="B765">
         <v>8.7724785735958992</v>
@@ -16348,7 +16367,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>10.364736844785501</v>
+        <v>10</v>
       </c>
       <c r="B766">
         <v>2.71473752754315</v>
@@ -16359,7 +16378,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>1.75484435074031</v>
+        <v>2</v>
       </c>
       <c r="B767">
         <v>2.7913122044054202</v>
@@ -16370,7 +16389,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>8.3732378790155106</v>
+        <v>8</v>
       </c>
       <c r="B768">
         <v>7.1643872828989998</v>
@@ -16381,7 +16400,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>10.614496372640099</v>
+        <v>11</v>
       </c>
       <c r="B769">
         <v>2.6823451046046798</v>
@@ -16392,7 +16411,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>5.2922124154865697</v>
+        <v>5</v>
       </c>
       <c r="B770">
         <v>10.098091024240601</v>
@@ -16403,7 +16422,7 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>7.39809172600508</v>
+        <v>7</v>
       </c>
       <c r="B771">
         <v>8.4671315316888407</v>
@@ -16414,7 +16433,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>1.52462732233107</v>
+        <v>2</v>
       </c>
       <c r="B772">
         <v>2.5442687382612301</v>
@@ -16425,7 +16444,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>1.89091713353992</v>
+        <v>2</v>
       </c>
       <c r="B773">
         <v>6.5021362292957399</v>
@@ -16436,7 +16455,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>10.200408984907</v>
+        <v>10</v>
       </c>
       <c r="B774">
         <v>5.4753359051908701</v>
@@ -16447,7 +16466,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>5.3281260374933499</v>
+        <v>5</v>
       </c>
       <c r="B775">
         <v>11.9436187613531</v>
@@ -16458,7 +16477,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>7.5323947006836498</v>
+        <v>8</v>
       </c>
       <c r="B776">
         <v>3.2269862502218198</v>
@@ -16469,7 +16488,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>10.189709097147</v>
+        <v>10</v>
       </c>
       <c r="B777">
         <v>3.5192847267980198</v>
@@ -16480,7 +16499,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>8.7782036354765296</v>
+        <v>9</v>
       </c>
       <c r="B778">
         <v>8.9156507239738794</v>
@@ -16491,7 +16510,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>4.7203368935733998</v>
+        <v>5</v>
       </c>
       <c r="B779">
         <v>11.7266648748029</v>
@@ -16502,7 +16521,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>5.5309055317193296</v>
+        <v>6</v>
       </c>
       <c r="B780">
         <v>11.279852366490299</v>
@@ -16513,7 +16532,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>2.48416406940669</v>
+        <v>2</v>
       </c>
       <c r="B781">
         <v>3.9288603418636598</v>
@@ -16524,7 +16543,7 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>1.6389327328652099</v>
+        <v>2</v>
       </c>
       <c r="B782">
         <v>6.2429465155429096</v>
@@ -16535,7 +16554,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>5.1425683004781604</v>
+        <v>5</v>
       </c>
       <c r="B783">
         <v>8.0845591382358002</v>
@@ -16546,7 +16565,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>2.3034360297024299</v>
+        <v>2</v>
       </c>
       <c r="B784">
         <v>6.9705739409866601</v>
@@ -16557,7 +16576,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>0.34316756576299701</v>
+        <v>0</v>
       </c>
       <c r="B785">
         <v>6.1192839157164398</v>
@@ -16568,7 +16587,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>10.7805902268738</v>
+        <v>11</v>
       </c>
       <c r="B786">
         <v>2.9261224002614399</v>
@@ -16579,7 +16598,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>1.0790395969525</v>
+        <v>1</v>
       </c>
       <c r="B787">
         <v>2.6845006920263002</v>
@@ -16590,7 +16609,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>1.0127210207283499</v>
+        <v>1</v>
       </c>
       <c r="B788">
         <v>4.6765074261684596</v>
@@ -16601,7 +16620,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>7.8441871991380996</v>
+        <v>8</v>
       </c>
       <c r="B789">
         <v>10.2065448795985</v>
@@ -16612,7 +16631,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>11.285773107781999</v>
+        <v>11</v>
       </c>
       <c r="B790">
         <v>2.5932303138979198</v>
@@ -16623,7 +16642,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>5.6243397686630496</v>
+        <v>6</v>
       </c>
       <c r="B791">
         <v>9.7797982175796694</v>
@@ -16634,7 +16653,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>2.65405008383095</v>
+        <v>3</v>
       </c>
       <c r="B792">
         <v>3.0455209581992202</v>
@@ -16645,7 +16664,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>2.7432401217520201</v>
+        <v>3</v>
       </c>
       <c r="B793">
         <v>2.3166623702024101</v>
@@ -16656,7 +16675,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>5.6158176027238396</v>
+        <v>6</v>
       </c>
       <c r="B794">
         <v>11.906640790556301</v>
@@ -16667,7 +16686,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>4.3049216531217098</v>
+        <v>4</v>
       </c>
       <c r="B795">
         <v>6.8016797702062997</v>
@@ -16678,7 +16697,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>7.1365534141659701</v>
+        <v>7</v>
       </c>
       <c r="B796">
         <v>6.66951265932728</v>
@@ -16689,7 +16708,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>4.3157329782843599</v>
+        <v>4</v>
       </c>
       <c r="B797">
         <v>7.9373255457643204</v>
@@ -16700,7 +16719,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>7.25688591320068</v>
+        <v>7</v>
       </c>
       <c r="B798">
         <v>11.9975340010709</v>
@@ -16711,7 +16730,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>6.4742519063875097</v>
+        <v>6</v>
       </c>
       <c r="B799">
         <v>11.766580314919899</v>
@@ -16722,7 +16741,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>5.3247215570881998</v>
+        <v>5</v>
       </c>
       <c r="B800">
         <v>10.4204808418292</v>
@@ -16733,7 +16752,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>5.6718000350519997</v>
+        <v>6</v>
       </c>
       <c r="B801">
         <v>16.8325776339261</v>
@@ -16744,7 +16763,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>2.16265757661313</v>
+        <v>2</v>
       </c>
       <c r="B802">
         <v>5.0962627767822699</v>
@@ -16755,7 +16774,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>2.3696529390290402</v>
+        <v>2</v>
       </c>
       <c r="B803">
         <v>4.5263832433903</v>
@@ -16766,7 +16785,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>2.52048018760979</v>
+        <v>3</v>
       </c>
       <c r="B804">
         <v>3.8239276584311499</v>
@@ -16777,7 +16796,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>4.4486330850049898</v>
+        <v>4</v>
       </c>
       <c r="B805">
         <v>6.6989896770636097</v>
@@ -16788,7 +16807,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>8.8897786438465101</v>
+        <v>9</v>
       </c>
       <c r="B806">
         <v>11.2682516647564</v>
@@ -16799,7 +16818,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>4.35513956006616</v>
+        <v>4</v>
       </c>
       <c r="B807">
         <v>7.4871831565421401</v>
@@ -16810,7 +16829,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>0.28870656620711099</v>
+        <v>0</v>
       </c>
       <c r="B808">
         <v>3.26768220516395</v>
@@ -16821,7 +16840,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>8.9537462303414905</v>
+        <v>9</v>
       </c>
       <c r="B809">
         <v>4.0698378335507304</v>
@@ -16832,7 +16851,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>3.3818813273683199</v>
+        <v>3</v>
       </c>
       <c r="B810">
         <v>4.0227082458860304</v>
@@ -16843,7 +16862,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>0.64225941058248304</v>
+        <v>1</v>
       </c>
       <c r="B811">
         <v>3.4344669101400598</v>
@@ -16854,7 +16873,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>0.14323843549936999</v>
+        <v>0</v>
       </c>
       <c r="B812">
         <v>3.7187417562899299</v>
@@ -16865,7 +16884,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>6.1129368245601698</v>
+        <v>6</v>
       </c>
       <c r="B813">
         <v>6.3553167135381301</v>
@@ -16876,7 +16895,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>11.4092853600159</v>
+        <v>11</v>
       </c>
       <c r="B814">
         <v>8.1290435693627501</v>
@@ -16887,7 +16906,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>6.2194816432893303</v>
+        <v>6</v>
       </c>
       <c r="B815">
         <v>7.1571912192421001</v>
@@ -16898,7 +16917,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>3.6762876212596902</v>
+        <v>4</v>
       </c>
       <c r="B816">
         <v>1.9801673923976499</v>
@@ -16909,7 +16928,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>1.65112053137273</v>
+        <v>2</v>
       </c>
       <c r="B817">
         <v>4.8569833694635198</v>
@@ -16920,7 +16939,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>0.75324788969010104</v>
+        <v>1</v>
       </c>
       <c r="B818">
         <v>5.8386376489887803</v>
@@ -16931,7 +16950,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>5.1308503272011903</v>
+        <v>5</v>
       </c>
       <c r="B819">
         <v>7.3715690290683797</v>
@@ -16942,7 +16961,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>10.1707251369953</v>
+        <v>10</v>
       </c>
       <c r="B820">
         <v>6.2017663146689701</v>
@@ -16953,7 +16972,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>11.8590156789869</v>
+        <v>12</v>
       </c>
       <c r="B821">
         <v>2.7829412671274198</v>
@@ -16964,7 +16983,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>6.0021914206445199</v>
+        <v>6</v>
       </c>
       <c r="B822">
         <v>4.9579034375504101</v>
@@ -16975,7 +16994,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>11.083113865926901</v>
+        <v>11</v>
       </c>
       <c r="B823">
         <v>9.7429752160791807</v>
@@ -16986,7 +17005,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>9.0814409069716895</v>
+        <v>9</v>
       </c>
       <c r="B824">
         <v>3.20372393598115</v>
@@ -16997,7 +17016,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>3.1903186691924899</v>
+        <v>3</v>
       </c>
       <c r="B825">
         <v>4.36906849191723</v>
@@ -17008,7 +17027,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>9.8163740001618898</v>
+        <v>10</v>
       </c>
       <c r="B826">
         <v>2.4500038764856802</v>
@@ -17019,7 +17038,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>11.049068078398699</v>
+        <v>11</v>
       </c>
       <c r="B827">
         <v>11.884718518482</v>
@@ -17030,7 +17049,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>8.2230343641713297</v>
+        <v>8</v>
       </c>
       <c r="B828">
         <v>6.99513054711809</v>
@@ -17041,7 +17060,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>7.6891107503324703</v>
+        <v>8</v>
       </c>
       <c r="B829">
         <v>8.0644105137138897</v>
@@ -17052,7 +17071,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>6.6964700957760197</v>
+        <v>7</v>
       </c>
       <c r="B830">
         <v>10.5443122473462</v>
@@ -17063,7 +17082,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>11.754533372819401</v>
+        <v>12</v>
       </c>
       <c r="B831">
         <v>16.526189879460301</v>
@@ -17074,7 +17093,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>0.14323056489229199</v>
+        <v>0</v>
       </c>
       <c r="B832">
         <v>3.1437204512190999</v>
@@ -17085,7 +17104,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>0.96817011851817403</v>
+        <v>1</v>
       </c>
       <c r="B833">
         <v>7.0341091393673603</v>
@@ -17096,7 +17115,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>5.5648427456617397E-2</v>
+        <v>0</v>
       </c>
       <c r="B834">
         <v>4.6908325842633003</v>
@@ -17107,7 +17126,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>3.5116413468494998</v>
+        <v>4</v>
       </c>
       <c r="B835">
         <v>3.9806408214786901</v>
@@ -17118,7 +17137,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>5.2749383607879299</v>
+        <v>5</v>
       </c>
       <c r="B836">
         <v>7.4069993887328902</v>
@@ -17129,7 +17148,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>5.6079203216359002</v>
+        <v>6</v>
       </c>
       <c r="B837">
         <v>12.211748103176101</v>
@@ -17140,7 +17159,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>2.3120779003948</v>
+        <v>2</v>
       </c>
       <c r="B838">
         <v>6.7470253301292296</v>
@@ -17151,7 +17170,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>8.7764356127008796</v>
+        <v>9</v>
       </c>
       <c r="B839">
         <v>5.3295070893912104</v>
@@ -17162,7 +17181,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>3.9110684338957098</v>
+        <v>4</v>
       </c>
       <c r="B840">
         <v>5.6057687198020503</v>
@@ -17173,7 +17192,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>9.9440282452851498</v>
+        <v>10</v>
       </c>
       <c r="B841">
         <v>4.6390235116312404</v>
@@ -17184,7 +17203,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>10.759245174005599</v>
+        <v>11</v>
       </c>
       <c r="B842">
         <v>3.9556177899225502</v>
@@ -17195,7 +17214,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>6.3460796121507901</v>
+        <v>6</v>
       </c>
       <c r="B843">
         <v>6.8495437048842902</v>
@@ -17206,7 +17225,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>2.7278399001807001</v>
+        <v>3</v>
       </c>
       <c r="B844">
         <v>1.8686512860619899</v>
@@ -17217,7 +17236,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>9.6097556082531792</v>
+        <v>10</v>
       </c>
       <c r="B845">
         <v>7.5892204704281303</v>
@@ -17228,7 +17247,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>0.32877459470182702</v>
+        <v>0</v>
       </c>
       <c r="B846">
         <v>7.0009796353378997</v>
@@ -17239,7 +17258,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>8.9311382062733191</v>
+        <v>9</v>
       </c>
       <c r="B847">
         <v>3.4494018302570502</v>
@@ -17250,7 +17269,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>5.3040523286908901</v>
+        <v>5</v>
       </c>
       <c r="B848">
         <v>7.7003238999001997</v>
@@ -17261,7 +17280,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>10.976294551044701</v>
+        <v>11</v>
       </c>
       <c r="B849">
         <v>4.0403791195835801</v>
@@ -17272,7 +17291,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>10.401489727199101</v>
+        <v>10</v>
       </c>
       <c r="B850">
         <v>3.4858194806746399</v>
@@ -17283,7 +17302,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>10.6097813621163</v>
+        <v>11</v>
       </c>
       <c r="B851">
         <v>3.85543603710732</v>
@@ -17294,7 +17313,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>2.5503940964117602</v>
+        <v>3</v>
       </c>
       <c r="B852">
         <v>3.9317295745538301</v>
@@ -17305,7 +17324,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>11.855231741443299</v>
+        <v>12</v>
       </c>
       <c r="B853">
         <v>2.0209088352717899</v>
@@ -17316,7 +17335,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>2.9697054857388099</v>
+        <v>3</v>
       </c>
       <c r="B854">
         <v>3.0162624605562098</v>
@@ -17327,7 +17346,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>5.4804693292826396</v>
+        <v>5</v>
       </c>
       <c r="B855">
         <v>10.4374946426994</v>
@@ -17338,7 +17357,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>5.4706359179690498</v>
+        <v>5</v>
       </c>
       <c r="B856">
         <v>11.7237532978265</v>
@@ -17349,7 +17368,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>3.5538959344848999</v>
+        <v>4</v>
       </c>
       <c r="B857">
         <v>3.5304439685714102</v>
@@ -17360,7 +17379,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>0.189506904222071</v>
+        <v>0</v>
       </c>
       <c r="B858">
         <v>5.1289972641718604</v>
@@ -17371,7 +17390,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>5.0005783438682601</v>
+        <v>5</v>
       </c>
       <c r="B859">
         <v>9.5374193867268406</v>
@@ -17382,7 +17401,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>5.7298071943223503</v>
+        <v>6</v>
       </c>
       <c r="B860">
         <v>14.441773722751</v>
@@ -17393,7 +17412,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>7.1194808073341802</v>
+        <v>7</v>
       </c>
       <c r="B861">
         <v>5.0317148708447998</v>
@@ -17404,7 +17423,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>7.0476481290534103</v>
+        <v>7</v>
       </c>
       <c r="B862">
         <v>5.9964278165466398</v>
@@ -17415,7 +17434,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>11.474674919620201</v>
+        <v>11</v>
       </c>
       <c r="B863">
         <v>7.4339646563813204</v>
@@ -17426,7 +17445,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>2.10119135677814</v>
+        <v>2</v>
       </c>
       <c r="B864">
         <v>3.5206406739065099</v>
@@ -17437,7 +17456,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>3.4443157464265801</v>
+        <v>3</v>
       </c>
       <c r="B865">
         <v>6.2985574886503102</v>
@@ -17448,7 +17467,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>3.3853617366403301</v>
+        <v>3</v>
       </c>
       <c r="B866">
         <v>4.2745154060339701</v>
@@ -17459,7 +17478,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>0.461805844679475</v>
+        <v>0</v>
       </c>
       <c r="B867">
         <v>5.7902681606572299</v>
@@ -17470,7 +17489,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>7.3052986627444598</v>
+        <v>7</v>
       </c>
       <c r="B868">
         <v>4.5081002687803897</v>
@@ -17481,7 +17500,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>10.814404196105899</v>
+        <v>11</v>
       </c>
       <c r="B869">
         <v>3.2894243491572799</v>
@@ -17492,7 +17511,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>0.34505338221788401</v>
+        <v>0</v>
       </c>
       <c r="B870">
         <v>5.8458477352441598</v>
@@ -17503,7 +17522,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>5.39063393510878</v>
+        <v>5</v>
       </c>
       <c r="B871">
         <v>13.1214904276412</v>
@@ -17514,7 +17533,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>10.3099788213149</v>
+        <v>10</v>
       </c>
       <c r="B872">
         <v>7.1525375396354098</v>
@@ -17525,7 +17544,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>10.652623546309799</v>
+        <v>11</v>
       </c>
       <c r="B873">
         <v>4.8783124077636097</v>
@@ -17536,7 +17555,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>9.6437905747443402</v>
+        <v>10</v>
       </c>
       <c r="B874">
         <v>4.1322177924498602</v>
@@ -17547,7 +17566,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>10.1299182102084</v>
+        <v>10</v>
       </c>
       <c r="B875">
         <v>7.4876266459837604</v>
@@ -17558,7 +17577,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>3.9819253776222499</v>
+        <v>4</v>
       </c>
       <c r="B876">
         <v>3.1196297354778699</v>
@@ -17569,7 +17588,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>3.7399458149448002</v>
+        <v>4</v>
       </c>
       <c r="B877">
         <v>7.2744696299550897</v>
@@ -17580,7 +17599,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>9.0580391082912701</v>
+        <v>9</v>
       </c>
       <c r="B878">
         <v>12.323150940497699</v>
@@ -17591,7 +17610,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>0.67914940416812897</v>
+        <v>1</v>
       </c>
       <c r="B879">
         <v>7.6604969441955504</v>
@@ -17602,7 +17621,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>8.5690300958231091</v>
+        <v>9</v>
       </c>
       <c r="B880">
         <v>6.8221169280485201</v>
@@ -17613,7 +17632,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>11.1823622826487</v>
+        <v>11</v>
       </c>
       <c r="B881">
         <v>5.6029729208124097</v>
@@ -17624,7 +17643,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>11.2217426961288</v>
+        <v>11</v>
       </c>
       <c r="B882">
         <v>1.93808580372416</v>
@@ -17635,7 +17654,7 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>1.9294166145846201</v>
+        <v>2</v>
       </c>
       <c r="B883">
         <v>3.0689070412987598</v>
@@ -17646,7 +17665,7 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>3.86621457338333</v>
+        <v>4</v>
       </c>
       <c r="B884">
         <v>6.2224008049336801</v>
@@ -17657,7 +17676,7 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>8.3197064353153092</v>
+        <v>8</v>
       </c>
       <c r="B885">
         <v>7.1551825007232202</v>
@@ -17668,7 +17687,7 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>2.4562321482226301</v>
+        <v>2</v>
       </c>
       <c r="B886">
         <v>3.3994482042218501</v>
@@ -17679,7 +17698,7 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>2.79468242637813</v>
+        <v>3</v>
       </c>
       <c r="B887">
         <v>3.0934108469285002</v>
@@ -17690,7 +17709,7 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>2.9932314902543999</v>
+        <v>3</v>
       </c>
       <c r="B888">
         <v>4.5094096492177602</v>
@@ -17701,7 +17720,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>11.2709694318473</v>
+        <v>11</v>
       </c>
       <c r="B889">
         <v>7.66810118783871</v>
@@ -17712,7 +17731,7 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>5.1915992237627497</v>
+        <v>5</v>
       </c>
       <c r="B890">
         <v>8.2905799073447106</v>
@@ -17723,7 +17742,7 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>7.2612758120521903</v>
+        <v>7</v>
       </c>
       <c r="B891">
         <v>4.0828508042542202</v>
@@ -17734,7 +17753,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>1.30348242726177</v>
+        <v>1</v>
       </c>
       <c r="B892">
         <v>7.4376228689864101</v>
@@ -17745,7 +17764,7 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>10.7285745022818</v>
+        <v>11</v>
       </c>
       <c r="B893">
         <v>3.0132487309713101</v>
@@ -17756,7 +17775,7 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>8.6055620172992295</v>
+        <v>9</v>
       </c>
       <c r="B894">
         <v>10.6210933381702</v>
@@ -17767,7 +17786,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>0.88313477206975199</v>
+        <v>1</v>
       </c>
       <c r="B895">
         <v>3.7451332859727899</v>
@@ -17778,7 +17797,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>3.4826264670118698</v>
+        <v>3</v>
       </c>
       <c r="B896">
         <v>6.2423168433702596</v>
@@ -17789,7 +17808,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>5.5716466018930104</v>
+        <v>6</v>
       </c>
       <c r="B897">
         <v>12.543860836410801</v>
@@ -17800,7 +17819,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>6.6634349450468999</v>
+        <v>7</v>
       </c>
       <c r="B898">
         <v>11.7857494842235</v>
@@ -17811,7 +17830,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>2.4600960044190301</v>
+        <v>2</v>
       </c>
       <c r="B899">
         <v>3.50986101729554</v>
@@ -17822,7 +17841,7 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>5.38224000111222</v>
+        <v>5</v>
       </c>
       <c r="B900">
         <v>11.458454282021</v>
@@ -17833,7 +17852,7 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>10.384630582295401</v>
+        <v>10</v>
       </c>
       <c r="B901">
         <v>3.6486306039215299</v>
@@ -17844,7 +17863,7 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>5.5397918606176999</v>
+        <v>6</v>
       </c>
       <c r="B902">
         <v>9.1451650270982192</v>
@@ -17855,7 +17874,7 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>9.9425901649519801</v>
+        <v>10</v>
       </c>
       <c r="B903">
         <v>5.2626172799117397</v>
@@ -17866,7 +17885,7 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>2.50879436451942</v>
+        <v>3</v>
       </c>
       <c r="B904">
         <v>3.03215698453063</v>
@@ -17877,7 +17896,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>6.4425474749877996</v>
+        <v>6</v>
       </c>
       <c r="B905">
         <v>9.5779157581046803</v>
@@ -17888,7 +17907,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>11.1761258197948</v>
+        <v>11</v>
       </c>
       <c r="B906">
         <v>14.280800609868299</v>
@@ -17899,7 +17918,7 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>6.1734940409660304</v>
+        <v>6</v>
       </c>
       <c r="B907">
         <v>3.6934760777286599</v>
@@ -17910,7 +17929,7 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>0.71087520942091897</v>
+        <v>1</v>
       </c>
       <c r="B908">
         <v>4.82413871017497</v>
@@ -17921,7 +17940,7 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>7.7863610498607203</v>
+        <v>8</v>
       </c>
       <c r="B909">
         <v>6.4756328878430196</v>
@@ -17932,7 +17951,7 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>4.8266986878588796</v>
+        <v>5</v>
       </c>
       <c r="B910">
         <v>5.35814416020055</v>
@@ -17943,7 +17962,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>1.18948937952518</v>
+        <v>1</v>
       </c>
       <c r="B911">
         <v>4.6258747278171102</v>
@@ -17954,7 +17973,7 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>3.41389251127839</v>
+        <v>3</v>
       </c>
       <c r="B912">
         <v>7.6176550902374904</v>
@@ -17965,7 +17984,7 @@
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>6.3280314104631499</v>
+        <v>6</v>
       </c>
       <c r="B913">
         <v>4.4160930985245299</v>
@@ -17976,7 +17995,7 @@
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>8.6165034463629109</v>
+        <v>9</v>
       </c>
       <c r="B914">
         <v>6.0102186499905201</v>
@@ -17987,7 +18006,7 @@
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>8.7016043700277805</v>
+        <v>9</v>
       </c>
       <c r="B915">
         <v>5.9647153627282696</v>
@@ -17998,7 +18017,7 @@
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>8.3255051588639599</v>
+        <v>8</v>
       </c>
       <c r="B916">
         <v>13.1409034444321</v>
@@ -18009,7 +18028,7 @@
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>10.1795027777553</v>
+        <v>10</v>
       </c>
       <c r="B917">
         <v>3.19615833117212</v>
@@ -18020,7 +18039,7 @@
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>10.313796023838201</v>
+        <v>10</v>
       </c>
       <c r="B918">
         <v>7.3083714982439503</v>
@@ -18031,7 +18050,7 @@
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>0.144180072471499</v>
+        <v>0</v>
       </c>
       <c r="B919">
         <v>4.0395042487080897</v>
@@ -18042,7 +18061,7 @@
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>1.47419367358088</v>
+        <v>1</v>
       </c>
       <c r="B920">
         <v>3.99106869843094</v>
@@ -18053,7 +18072,7 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>1.4032749580219399</v>
+        <v>1</v>
       </c>
       <c r="B921">
         <v>4.6350890306422503</v>
@@ -18064,7 +18083,7 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>5.1034610448405102</v>
+        <v>5</v>
       </c>
       <c r="B922">
         <v>13.1524877860562</v>
@@ -18075,7 +18094,7 @@
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>5.0092708133161103</v>
+        <v>5</v>
       </c>
       <c r="B923">
         <v>4.4672283089689104</v>
@@ -18086,7 +18105,7 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>6.4482416175305799</v>
+        <v>6</v>
       </c>
       <c r="B924">
         <v>7.8664785444065002</v>
@@ -18097,7 +18116,7 @@
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>9.0765396030619705</v>
+        <v>9</v>
       </c>
       <c r="B925">
         <v>3.2469556248593299</v>
@@ -18108,7 +18127,7 @@
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>7.9527028435841203</v>
+        <v>8</v>
       </c>
       <c r="B926">
         <v>6.3442217233442904</v>
@@ -18119,7 +18138,7 @@
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>3.0134590147063101</v>
+        <v>3</v>
       </c>
       <c r="B927">
         <v>2.5307949489497199</v>
@@ -18130,7 +18149,7 @@
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>1.8911657910794</v>
+        <v>2</v>
       </c>
       <c r="B928">
         <v>2.7095323075661599</v>
@@ -18141,7 +18160,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>6.0556266847997904</v>
+        <v>6</v>
       </c>
       <c r="B929">
         <v>3.6077311707707702</v>
@@ -18152,7 +18171,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>6.0310778394341504</v>
+        <v>6</v>
       </c>
       <c r="B930">
         <v>3.2668095734760798</v>
@@ -18163,7 +18182,7 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>11.985644725151399</v>
+        <v>12</v>
       </c>
       <c r="B931">
         <v>4.5438183372446597</v>
@@ -18174,7 +18193,7 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>4.9430164508521601</v>
+        <v>5</v>
       </c>
       <c r="B932">
         <v>8.3092360542587294</v>
@@ -18185,7 +18204,7 @@
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>3.41449601668864</v>
+        <v>3</v>
       </c>
       <c r="B933">
         <v>8.0958342428571708</v>
@@ -18196,7 +18215,7 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>5.8663109131157398</v>
+        <v>6</v>
       </c>
       <c r="B934">
         <v>13.1437235279004</v>
@@ -18207,7 +18226,7 @@
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>2.4220281103625898</v>
+        <v>2</v>
       </c>
       <c r="B935">
         <v>3.0999678184688899</v>
@@ -18218,7 +18237,7 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>8.0333346566185408</v>
+        <v>8</v>
       </c>
       <c r="B936">
         <v>8.3623695899684893</v>
@@ -18229,7 +18248,7 @@
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>7.5209142789244696</v>
+        <v>8</v>
       </c>
       <c r="B937">
         <v>7.5906734829757401</v>
@@ -18240,7 +18259,7 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>0.23785350099206001</v>
+        <v>0</v>
       </c>
       <c r="B938">
         <v>10.6411877769587</v>
@@ -18251,7 +18270,7 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>7.6483812890946901</v>
+        <v>8</v>
       </c>
       <c r="B939">
         <v>3.8722105699473301</v>
@@ -18262,7 +18281,7 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>4.9156591957435003</v>
+        <v>5</v>
       </c>
       <c r="B940">
         <v>11.505372405353199</v>
@@ -18273,7 +18292,7 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>10.2264642985538</v>
+        <v>10</v>
       </c>
       <c r="B941">
         <v>6.2530609392101502</v>
@@ -18284,7 +18303,7 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>5.8046841099858302</v>
+        <v>6</v>
       </c>
       <c r="B942">
         <v>15.2605297494597</v>
@@ -18295,7 +18314,7 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>10.7107328418642</v>
+        <v>11</v>
       </c>
       <c r="B943">
         <v>12.5689671343039</v>
@@ -18306,7 +18325,7 @@
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>11.619445958174801</v>
+        <v>12</v>
       </c>
       <c r="B944">
         <v>3.58537890792639</v>
@@ -18317,7 +18336,7 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>0.31963825877755903</v>
+        <v>0</v>
       </c>
       <c r="B945">
         <v>7.99609495403846</v>
@@ -18328,7 +18347,7 @@
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>9.4205358652398008</v>
+        <v>9</v>
       </c>
       <c r="B946">
         <v>11.451725267451</v>
@@ -18339,7 +18358,7 @@
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>10.272160255350199</v>
+        <v>10</v>
       </c>
       <c r="B947">
         <v>9.1637711311632906</v>
@@ -18350,7 +18369,7 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>0.21409847494214801</v>
+        <v>0</v>
       </c>
       <c r="B948">
         <v>4.6000601005841402</v>
@@ -18361,7 +18380,7 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>6.7589283501729396</v>
+        <v>7</v>
       </c>
       <c r="B949">
         <v>3.1549052986027899</v>
@@ -18372,7 +18391,7 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>4.30560166295618</v>
+        <v>4</v>
       </c>
       <c r="B950">
         <v>9.1732327269237306</v>
@@ -18383,7 +18402,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>9.6056963950395602</v>
+        <v>10</v>
       </c>
       <c r="B951">
         <v>4.9762424300547998</v>
@@ -18394,7 +18413,7 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>11.030546774156401</v>
+        <v>11</v>
       </c>
       <c r="B952">
         <v>5.4887631286741199</v>
@@ -18405,7 +18424,7 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>5.8290236955508599</v>
+        <v>6</v>
       </c>
       <c r="B953">
         <v>14.049200164454399</v>
@@ -18416,7 +18435,7 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>1.3525813054293401</v>
+        <v>1</v>
       </c>
       <c r="B954">
         <v>5.6155689450970003</v>
@@ -18427,7 +18446,7 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>7.0694031100720203</v>
+        <v>7</v>
       </c>
       <c r="B955">
         <v>4.8291318753137196</v>
@@ -18438,7 +18457,7 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>10.3856886634603</v>
+        <v>10</v>
       </c>
       <c r="B956">
         <v>7.75238193921445</v>
@@ -18449,7 +18468,7 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>0.72775788232684102</v>
+        <v>1</v>
       </c>
       <c r="B957">
         <v>5.35705073080738</v>
@@ -18460,7 +18479,7 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>6.1025417307391798</v>
+        <v>6</v>
       </c>
       <c r="B958">
         <v>4.1941528193998501</v>
@@ -18471,7 +18490,7 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>7.2862461218610397</v>
+        <v>7</v>
       </c>
       <c r="B959">
         <v>4.1301374188955302</v>
@@ -18482,7 +18501,7 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>6.7224169922992596</v>
+        <v>7</v>
       </c>
       <c r="B960">
         <v>4.8368599634796698</v>
@@ -18493,7 +18512,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>2.1364194620400698</v>
+        <v>2</v>
       </c>
       <c r="B961">
         <v>3.0620938651692602</v>
@@ -18504,7 +18523,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>0.34079500101506699</v>
+        <v>0</v>
       </c>
       <c r="B962">
         <v>5.7807883517504202</v>
@@ -18515,7 +18534,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>2.2702324725687499</v>
+        <v>2</v>
       </c>
       <c r="B963">
         <v>12.9160578905542</v>
@@ -18526,7 +18545,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>6.16971060074866</v>
+        <v>6</v>
       </c>
       <c r="B964">
         <v>13.185232480351701</v>
@@ -18537,7 +18556,7 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>3.2352240951731801</v>
+        <v>3</v>
       </c>
       <c r="B965">
         <v>3.9868863557775698</v>
@@ -18548,7 +18567,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>0.64862739387899604</v>
+        <v>1</v>
       </c>
       <c r="B966">
         <v>3.9090813084434801</v>
@@ -18559,7 +18578,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>7.0547992838546598</v>
+        <v>7</v>
       </c>
       <c r="B967">
         <v>4.6124933639369301</v>
@@ -18570,7 +18589,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>5.1434399541467402</v>
+        <v>5</v>
       </c>
       <c r="B968">
         <v>5.3457030838820101</v>
@@ -18581,7 +18600,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>7.1178597109392303</v>
+        <v>7</v>
       </c>
       <c r="B969">
         <v>2.6405612917583401</v>
@@ -18592,7 +18611,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>2.9265566719695899</v>
+        <v>3</v>
       </c>
       <c r="B970">
         <v>6.3014435610549402</v>
@@ -18603,7 +18622,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>0.88334122952073801</v>
+        <v>1</v>
       </c>
       <c r="B971">
         <v>5.7294727266818697</v>
@@ -18614,7 +18633,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>9.0340368160977995</v>
+        <v>9</v>
       </c>
       <c r="B972">
         <v>2.8184319163570999</v>
@@ -18625,7 +18644,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>10.240735251456501</v>
+        <v>10</v>
       </c>
       <c r="B973">
         <v>8.2886451161772801</v>
@@ -18636,7 +18655,7 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>8.5351180303841794</v>
+        <v>9</v>
       </c>
       <c r="B974">
         <v>8.26332041353559</v>
@@ -18647,7 +18666,7 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>9.9383666412904894</v>
+        <v>10</v>
       </c>
       <c r="B975">
         <v>13.1025594411391</v>
@@ -18658,7 +18677,7 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>8.19536336325109</v>
+        <v>8</v>
       </c>
       <c r="B976">
         <v>3.2278943678543999</v>
@@ -18669,7 +18688,7 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>7.4841493181884298</v>
+        <v>7</v>
       </c>
       <c r="B977">
         <v>10.896047633728999</v>
@@ -18680,7 +18699,7 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>11.3484988007694</v>
+        <v>11</v>
       </c>
       <c r="B978">
         <v>11.4040222906822</v>
@@ -18691,7 +18710,7 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>1.1229824814945499</v>
+        <v>1</v>
       </c>
       <c r="B979">
         <v>15.8365502952784</v>
@@ -18702,7 +18721,7 @@
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>6.1155449431389597</v>
+        <v>6</v>
       </c>
       <c r="B980">
         <v>15.474705581039</v>
@@ -18713,7 +18732,7 @@
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>9.8472762890160102</v>
+        <v>10</v>
       </c>
       <c r="B981">
         <v>8.1639826212949007</v>
@@ -18724,7 +18743,7 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>2.4617308303713799</v>
+        <v>2</v>
       </c>
       <c r="B982">
         <v>6.0004514397742401</v>
@@ -18735,7 +18754,7 @@
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>1.4897342277690799</v>
+        <v>1</v>
       </c>
       <c r="B983">
         <v>7.1725012523781198</v>
@@ -18746,7 +18765,7 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>8.5409253090620005</v>
+        <v>9</v>
       </c>
       <c r="B984">
         <v>4.67507961166688</v>
@@ -18757,7 +18776,7 @@
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>10.5153731480241</v>
+        <v>11</v>
       </c>
       <c r="B985">
         <v>9.1766515056443403</v>
@@ -18768,7 +18787,7 @@
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>6.0831295028328896</v>
+        <v>6</v>
       </c>
       <c r="B986">
         <v>14.0575829881952</v>
@@ -18779,7 +18798,7 @@
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>10.1455081868917</v>
+        <v>10</v>
       </c>
       <c r="B987">
         <v>5.75175557247755</v>
@@ -18790,7 +18809,7 @@
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>3.09989963751286</v>
+        <v>3</v>
       </c>
       <c r="B988">
         <v>5.5591754936894402</v>
@@ -18801,7 +18820,7 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>1.5052648466080401</v>
+        <v>2</v>
       </c>
       <c r="B989">
         <v>8.5339275620497101</v>
@@ -18812,7 +18831,7 @@
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>2.3544940548017599</v>
+        <v>2</v>
       </c>
       <c r="B990">
         <v>5.8901245838675704</v>
@@ -18823,7 +18842,7 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>1.4153167577460399</v>
+        <v>1</v>
       </c>
       <c r="B991">
         <v>4.5768468509973603</v>
@@ -18834,7 +18853,7 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>10.1414563581347</v>
+        <v>10</v>
       </c>
       <c r="B992">
         <v>5.4833906776444596</v>
@@ -18845,7 +18864,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>0.91490555740892898</v>
+        <v>1</v>
       </c>
       <c r="B993">
         <v>2.9950867272270298</v>
@@ -18856,7 +18875,7 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>5.3158317273482698</v>
+        <v>5</v>
       </c>
       <c r="B994">
         <v>3.2709343643330402</v>
@@ -18867,7 +18886,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>5.8441958539187899</v>
+        <v>6</v>
       </c>
       <c r="B995">
         <v>3.2518077424560801</v>
@@ -18878,7 +18897,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>1.7447388656437399</v>
+        <v>2</v>
       </c>
       <c r="B996">
         <v>10.9970327668598</v>
@@ -18889,7 +18908,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>1.5049622375518099</v>
+        <v>2</v>
       </c>
       <c r="B997">
         <v>6.1301222432540801</v>
@@ -18900,7 +18919,7 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>4.8059763852506903</v>
+        <v>5</v>
       </c>
       <c r="B998">
         <v>4.3500278248861299</v>
@@ -18911,7 +18930,7 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>0.64800725039094698</v>
+        <v>1</v>
       </c>
       <c r="B999">
         <v>4.7154574516247596</v>
@@ -18922,7 +18941,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>3.53170225862414</v>
+        <v>4</v>
       </c>
       <c r="B1000">
         <v>3.7073304589856302</v>
@@ -18933,7 +18952,7 @@
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>8.5700256843119895</v>
+        <v>9</v>
       </c>
       <c r="B1001">
         <v>3.2634218847007901</v>
@@ -18948,7 +18967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView topLeftCell="A964" workbookViewId="0">
